--- a/DB_Excel.xlsx
+++ b/DB_Excel.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhkoo\product_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A140A5A5-D125-4F93-9781-A9D7E52F4F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE986F6-5702-453C-AF0C-C35153CAC94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16335" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
+    <definedName name="슬라이서_Color">#N/A</definedName>
+    <definedName name="슬라이서_Unit_Size">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+      <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId2"/>
+        <x14:slicerCache r:id="rId3"/>
+      </x15:slicerCaches>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -5130,9 +5141,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -5144,17 +5153,65 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5165,6 +5222,218 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Unit Size">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054E91C7-F963-CD7B-5B0D-A3A8AFA2731E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Unit Size"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13011150" y="123825"/>
+              <a:ext cx="1828800" cy="2809875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>이 도형은 표 슬라이서를 나타냅니다. 표 슬라이서는 이 버전의 Excel에서 지원되지 않습니다.
+이전 버전의 Excel에서 도형이 수정되었거나 통합 문서가 Excel 2007 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Color">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C1B26C-3BFE-DBCD-9C1C-06A14EB61290}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Color"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14868525" y="133350"/>
+              <a:ext cx="1828800" cy="2809875"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+                <a:t>이 도형은 표 슬라이서를 나타냅니다. 표 슬라이서는 이 버전의 Excel에서 지원되지 않습니다.
+이전 버전의 Excel에서 도형이 수정되었거나 통합 문서가 Excel 2007 또는 이전 버전에서 저장된 경우 슬라이서를 사용할 수 없습니다.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_Unit_Size" xr10:uid="{BA8F66E6-C6E1-46DA-AA44-D4E497631A12}" sourceName="Unit Size">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="4"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="슬라이서_Color" xr10:uid="{43A81A22-3520-4B77-9503-B7E073334B86}" sourceName="Color">
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{2F2917AC-EB37-4324-AD4E-5DD8C200BD13}">
+      <x15:tableSlicerCache tableId="1" column="5"/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Unit Size" xr10:uid="{6C822093-8096-46E4-BE80-3E7F9970F3E2}" cache="슬라이서_Unit_Size" caption="Unit Size" rowHeight="273050"/>
+  <slicer name="Color" xr10:uid="{5DCB0E68-633B-4B0B-942E-AF8D6B7ACCC9}" cache="슬라이서_Color" caption="Color" rowHeight="273050"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{56B377A5-1811-4C66-828B-83D33B86D0DC}" name="표1" displayName="표1" ref="A1:H613" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:H613" xr:uid="{56B377A5-1811-4C66-828B-83D33B86D0DC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{203E12FC-194A-4BD1-9A11-5F3F69596786}" name="Item Code"/>
+    <tableColumn id="2" xr3:uid="{81BC47E1-B8C7-4D5B-AA49-355A67FB4C40}" name="Item Name"/>
+    <tableColumn id="3" xr3:uid="{0012D7C4-E86E-497A-A6C5-21138641BDA5}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{E34BC53B-35B0-4FF9-87AE-855BEA44E8AB}" name="Unit Size"/>
+    <tableColumn id="5" xr3:uid="{C94F8BEC-DE62-4B2F-8AF9-AB7543031F08}" name="Color"/>
+    <tableColumn id="6" xr3:uid="{72B8A67E-76FF-4912-AFF3-9F596BE8D6D4}" name="Weight"/>
+    <tableColumn id="7" xr3:uid="{1E161C7E-4D49-4AFC-A7DA-8B8145C8FFB5}" name="Claim"/>
+    <tableColumn id="8" xr3:uid="{4311F15B-C8AC-462D-BD8C-0D91B089D4E8}" name="Dosage" dataDxfId="1">
+      <calculatedColumnFormula>IF(ISNUMBER(SEARCH("-TB-",A2)),"Tablet",
+ IF(ISNUMBER(SEARCH("-SG-",A2)),"Softgel",
+  IF(ISNUMBER(SEARCH("-HC-",A2)),"Hard Capsule",
+   IF(ISNUMBER(SEARCH("-SH-",A2)),"Sachet",
+    IF(ISNUMBER(SEARCH("-PW-",A2)),"Powder",
+     IF(ISNUMBER(SEARCH("-LQ-",A2)),"Liquid","None"))))))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5455,38 +5724,38 @@
   <dimension ref="A1:H613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="21.25" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1674</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1673</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1672</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1671</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1670</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1676</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1675</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -5509,7 +5778,7 @@
       <c r="F2">
         <v>725</v>
       </c>
-      <c r="H2" s="2" t="str">
+      <c r="H2" s="1" t="str">
         <f>IF(ISNUMBER(SEARCH("-TB-",A2)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A2)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A2)),"Hard Capsule",
@@ -5538,7 +5807,7 @@
       <c r="F3">
         <v>600</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H66" si="0">IF(ISNUMBER(SEARCH("-TB-",A3)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A3)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A3)),"Hard Capsule",
@@ -5567,7 +5836,7 @@
       <c r="F4">
         <v>630</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5591,7 +5860,7 @@
       <c r="F5">
         <v>740</v>
       </c>
-      <c r="H5" s="2" t="str">
+      <c r="H5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5615,7 +5884,7 @@
       <c r="F6">
         <v>500</v>
       </c>
-      <c r="H6" s="2" t="str">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5639,7 +5908,7 @@
       <c r="F7">
         <v>510</v>
       </c>
-      <c r="H7" s="2" t="str">
+      <c r="H7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5663,7 +5932,7 @@
       <c r="F8">
         <v>520</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5687,7 +5956,7 @@
       <c r="F9">
         <v>520</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5711,7 +5980,7 @@
       <c r="F10">
         <v>630</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5735,7 +6004,7 @@
       <c r="F11">
         <v>770</v>
       </c>
-      <c r="H11" s="2" t="str">
+      <c r="H11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5759,7 +6028,7 @@
       <c r="F12">
         <v>750</v>
       </c>
-      <c r="H12" s="2" t="str">
+      <c r="H12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5783,7 +6052,7 @@
       <c r="F13">
         <v>750</v>
       </c>
-      <c r="H13" s="2" t="str">
+      <c r="H13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5807,7 +6076,7 @@
       <c r="F14">
         <v>830</v>
       </c>
-      <c r="H14" s="2" t="str">
+      <c r="H14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5831,7 +6100,7 @@
       <c r="F15">
         <v>110</v>
       </c>
-      <c r="H15" s="2" t="str">
+      <c r="H15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5855,7 +6124,7 @@
       <c r="F16">
         <v>1661.6</v>
       </c>
-      <c r="H16" s="2" t="str">
+      <c r="H16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5879,7 +6148,7 @@
       <c r="F17">
         <v>650</v>
       </c>
-      <c r="H17" s="2" t="str">
+      <c r="H17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5903,7 +6172,7 @@
       <c r="F18">
         <v>630</v>
       </c>
-      <c r="H18" s="2" t="str">
+      <c r="H18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5927,7 +6196,7 @@
       <c r="F19">
         <v>750</v>
       </c>
-      <c r="H19" s="2" t="str">
+      <c r="H19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5951,7 +6220,7 @@
       <c r="F20">
         <v>380</v>
       </c>
-      <c r="H20" s="2" t="str">
+      <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5975,7 +6244,7 @@
       <c r="F21">
         <v>360</v>
       </c>
-      <c r="H21" s="2" t="str">
+      <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -5999,7 +6268,7 @@
       <c r="F22">
         <v>770</v>
       </c>
-      <c r="H22" s="2" t="str">
+      <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6023,7 +6292,7 @@
       <c r="F23">
         <v>650</v>
       </c>
-      <c r="H23" s="2" t="str">
+      <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6047,7 +6316,7 @@
       <c r="F24">
         <v>700</v>
       </c>
-      <c r="H24" s="2" t="str">
+      <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6071,7 +6340,7 @@
       <c r="F25">
         <v>830</v>
       </c>
-      <c r="H25" s="2" t="str">
+      <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6095,7 +6364,7 @@
       <c r="F26">
         <v>830</v>
       </c>
-      <c r="H26" s="2" t="str">
+      <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6119,7 +6388,7 @@
       <c r="F27">
         <v>550</v>
       </c>
-      <c r="H27" s="2" t="str">
+      <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6143,7 +6412,7 @@
       <c r="F28">
         <v>600</v>
       </c>
-      <c r="H28" s="2" t="str">
+      <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6167,7 +6436,7 @@
       <c r="F29">
         <v>700</v>
       </c>
-      <c r="H29" s="2" t="str">
+      <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6191,7 +6460,7 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="H30" s="2" t="str">
+      <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6215,7 +6484,7 @@
       <c r="F31">
         <v>330</v>
       </c>
-      <c r="H31" s="2" t="str">
+      <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6239,7 +6508,7 @@
       <c r="F32">
         <v>685</v>
       </c>
-      <c r="H32" s="2" t="str">
+      <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6263,7 +6532,7 @@
       <c r="F33">
         <v>334</v>
       </c>
-      <c r="H33" s="2" t="str">
+      <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6287,7 +6556,7 @@
       <c r="F34">
         <v>344</v>
       </c>
-      <c r="H34" s="2" t="str">
+      <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6311,7 +6580,7 @@
       <c r="F35">
         <v>520</v>
       </c>
-      <c r="H35" s="2" t="str">
+      <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6335,7 +6604,7 @@
       <c r="F36">
         <v>400</v>
       </c>
-      <c r="H36" s="2" t="str">
+      <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6359,7 +6628,7 @@
       <c r="F37">
         <v>500</v>
       </c>
-      <c r="H37" s="2" t="str">
+      <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6383,7 +6652,7 @@
       <c r="F38">
         <v>600</v>
       </c>
-      <c r="H38" s="2" t="str">
+      <c r="H38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6407,7 +6676,7 @@
       <c r="F39">
         <v>680</v>
       </c>
-      <c r="H39" s="2" t="str">
+      <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6431,7 +6700,7 @@
       <c r="F40">
         <v>700</v>
       </c>
-      <c r="H40" s="2" t="str">
+      <c r="H40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6455,7 +6724,7 @@
       <c r="F41">
         <v>645</v>
       </c>
-      <c r="H41" s="2" t="str">
+      <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6479,7 +6748,7 @@
       <c r="F42">
         <v>500</v>
       </c>
-      <c r="H42" s="2" t="str">
+      <c r="H42" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6503,7 +6772,7 @@
       <c r="F43">
         <v>650</v>
       </c>
-      <c r="H43" s="2" t="str">
+      <c r="H43" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6527,7 +6796,7 @@
       <c r="F44">
         <v>650</v>
       </c>
-      <c r="H44" s="2" t="str">
+      <c r="H44" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6551,7 +6820,7 @@
       <c r="F45">
         <v>350</v>
       </c>
-      <c r="H45" s="2" t="str">
+      <c r="H45" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6575,7 +6844,7 @@
       <c r="F46">
         <v>470</v>
       </c>
-      <c r="H46" s="2" t="str">
+      <c r="H46" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6599,7 +6868,7 @@
       <c r="F47">
         <v>500</v>
       </c>
-      <c r="H47" s="2" t="str">
+      <c r="H47" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6623,7 +6892,7 @@
       <c r="F48">
         <v>500</v>
       </c>
-      <c r="H48" s="2" t="str">
+      <c r="H48" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6647,7 +6916,7 @@
       <c r="F49">
         <v>500</v>
       </c>
-      <c r="H49" s="2" t="str">
+      <c r="H49" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6671,7 +6940,7 @@
       <c r="F50">
         <v>500</v>
       </c>
-      <c r="H50" s="2" t="str">
+      <c r="H50" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6695,7 +6964,7 @@
       <c r="F51">
         <v>500</v>
       </c>
-      <c r="H51" s="2" t="str">
+      <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6719,7 +6988,7 @@
       <c r="F52">
         <v>500</v>
       </c>
-      <c r="H52" s="2" t="str">
+      <c r="H52" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6743,7 +7012,7 @@
       <c r="F53">
         <v>0</v>
       </c>
-      <c r="H53" s="2" t="str">
+      <c r="H53" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6767,7 +7036,7 @@
       <c r="F54">
         <v>600</v>
       </c>
-      <c r="H54" s="2" t="str">
+      <c r="H54" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6791,7 +7060,7 @@
       <c r="F55">
         <v>690</v>
       </c>
-      <c r="H55" s="2" t="str">
+      <c r="H55" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6815,7 +7084,7 @@
       <c r="F56">
         <v>750</v>
       </c>
-      <c r="H56" s="2" t="str">
+      <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6839,7 +7108,7 @@
       <c r="F57">
         <v>670</v>
       </c>
-      <c r="H57" s="2" t="str">
+      <c r="H57" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6863,7 +7132,7 @@
       <c r="F58">
         <v>830</v>
       </c>
-      <c r="H58" s="2" t="str">
+      <c r="H58" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6887,7 +7156,7 @@
       <c r="F59">
         <v>810</v>
       </c>
-      <c r="H59" s="2" t="str">
+      <c r="H59" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6911,7 +7180,7 @@
       <c r="F60">
         <v>555</v>
       </c>
-      <c r="H60" s="2" t="str">
+      <c r="H60" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6935,7 +7204,7 @@
       <c r="F61">
         <v>620</v>
       </c>
-      <c r="H61" s="2" t="str">
+      <c r="H61" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6959,7 +7228,7 @@
       <c r="F62">
         <v>650</v>
       </c>
-      <c r="H62" s="2" t="str">
+      <c r="H62" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -6983,7 +7252,7 @@
       <c r="F63">
         <v>300</v>
       </c>
-      <c r="H63" s="2" t="str">
+      <c r="H63" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -7007,7 +7276,7 @@
       <c r="F64">
         <v>370</v>
       </c>
-      <c r="H64" s="2" t="str">
+      <c r="H64" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -7031,7 +7300,7 @@
       <c r="F65">
         <v>560</v>
       </c>
-      <c r="H65" s="2" t="str">
+      <c r="H65" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -7055,7 +7324,7 @@
       <c r="F66">
         <v>900</v>
       </c>
-      <c r="H66" s="2" t="str">
+      <c r="H66" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hard Capsule</v>
       </c>
@@ -7079,7 +7348,7 @@
       <c r="F67">
         <v>700</v>
       </c>
-      <c r="H67" s="2" t="str">
+      <c r="H67" s="1" t="str">
         <f t="shared" ref="H67:H130" si="1">IF(ISNUMBER(SEARCH("-TB-",A67)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A67)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A67)),"Hard Capsule",
@@ -7108,7 +7377,7 @@
       <c r="F68">
         <v>500</v>
       </c>
-      <c r="H68" s="2" t="str">
+      <c r="H68" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7132,7 +7401,7 @@
       <c r="F69">
         <v>600</v>
       </c>
-      <c r="H69" s="2" t="str">
+      <c r="H69" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7156,7 +7425,7 @@
       <c r="F70">
         <v>620</v>
       </c>
-      <c r="H70" s="2" t="str">
+      <c r="H70" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7180,7 +7449,7 @@
       <c r="F71">
         <v>680</v>
       </c>
-      <c r="H71" s="2" t="str">
+      <c r="H71" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7204,7 +7473,7 @@
       <c r="F72">
         <v>680</v>
       </c>
-      <c r="H72" s="2" t="str">
+      <c r="H72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7228,7 +7497,7 @@
       <c r="F73">
         <v>725</v>
       </c>
-      <c r="H73" s="2" t="str">
+      <c r="H73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7252,7 +7521,7 @@
       <c r="F74">
         <v>680</v>
       </c>
-      <c r="H74" s="2" t="str">
+      <c r="H74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7276,7 +7545,7 @@
       <c r="F75">
         <v>1094</v>
       </c>
-      <c r="H75" s="2" t="str">
+      <c r="H75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7300,7 +7569,7 @@
       <c r="F76">
         <v>550</v>
       </c>
-      <c r="H76" s="2" t="str">
+      <c r="H76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7324,7 +7593,7 @@
       <c r="F77">
         <v>749.9</v>
       </c>
-      <c r="H77" s="2" t="str">
+      <c r="H77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7348,7 +7617,7 @@
       <c r="F78">
         <v>600</v>
       </c>
-      <c r="H78" s="2" t="str">
+      <c r="H78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7372,7 +7641,7 @@
       <c r="F79">
         <v>700</v>
       </c>
-      <c r="H79" s="2" t="str">
+      <c r="H79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7396,7 +7665,7 @@
       <c r="F80">
         <v>750</v>
       </c>
-      <c r="H80" s="2" t="str">
+      <c r="H80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7420,7 +7689,7 @@
       <c r="F81">
         <v>750</v>
       </c>
-      <c r="H81" s="2" t="str">
+      <c r="H81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7444,7 +7713,7 @@
       <c r="F82">
         <v>900</v>
       </c>
-      <c r="H82" s="2" t="str">
+      <c r="H82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7468,7 +7737,7 @@
       <c r="F83">
         <v>750</v>
       </c>
-      <c r="H83" s="2" t="str">
+      <c r="H83" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7492,7 +7761,7 @@
       <c r="F84">
         <v>800</v>
       </c>
-      <c r="H84" s="2" t="str">
+      <c r="H84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7516,7 +7785,7 @@
       <c r="F85">
         <v>800</v>
       </c>
-      <c r="H85" s="2" t="str">
+      <c r="H85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7540,7 +7809,7 @@
       <c r="F86">
         <v>650</v>
       </c>
-      <c r="H86" s="2" t="str">
+      <c r="H86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7558,7 +7827,7 @@
       <c r="F87">
         <v>760</v>
       </c>
-      <c r="H87" s="2" t="str">
+      <c r="H87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7582,7 +7851,7 @@
       <c r="F88">
         <v>450</v>
       </c>
-      <c r="H88" s="2" t="str">
+      <c r="H88" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7606,7 +7875,7 @@
       <c r="F89">
         <v>730</v>
       </c>
-      <c r="H89" s="2" t="str">
+      <c r="H89" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7630,7 +7899,7 @@
       <c r="F90">
         <v>500</v>
       </c>
-      <c r="H90" s="2" t="str">
+      <c r="H90" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7648,7 +7917,7 @@
       <c r="F91">
         <v>300</v>
       </c>
-      <c r="H91" s="2" t="str">
+      <c r="H91" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7672,7 +7941,7 @@
       <c r="F92">
         <v>450</v>
       </c>
-      <c r="H92" s="2" t="str">
+      <c r="H92" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7696,7 +7965,7 @@
       <c r="F93">
         <v>450</v>
       </c>
-      <c r="H93" s="2" t="str">
+      <c r="H93" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7720,7 +7989,7 @@
       <c r="F94">
         <v>450</v>
       </c>
-      <c r="H94" s="2" t="str">
+      <c r="H94" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7744,7 +8013,7 @@
       <c r="F95">
         <v>500</v>
       </c>
-      <c r="H95" s="2" t="str">
+      <c r="H95" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7768,7 +8037,7 @@
       <c r="F96">
         <v>500</v>
       </c>
-      <c r="H96" s="2" t="str">
+      <c r="H96" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7792,7 +8061,7 @@
       <c r="F97">
         <v>500</v>
       </c>
-      <c r="H97" s="2" t="str">
+      <c r="H97" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7816,7 +8085,7 @@
       <c r="F98">
         <v>440</v>
       </c>
-      <c r="H98" s="2" t="str">
+      <c r="H98" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7840,7 +8109,7 @@
       <c r="F99">
         <v>500</v>
       </c>
-      <c r="H99" s="2" t="str">
+      <c r="H99" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7864,7 +8133,7 @@
       <c r="F100">
         <v>500</v>
       </c>
-      <c r="H100" s="2" t="str">
+      <c r="H100" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7888,7 +8157,7 @@
       <c r="F101">
         <v>500</v>
       </c>
-      <c r="H101" s="2" t="str">
+      <c r="H101" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7912,7 +8181,7 @@
       <c r="F102">
         <v>500</v>
       </c>
-      <c r="H102" s="2" t="str">
+      <c r="H102" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7936,7 +8205,7 @@
       <c r="F103">
         <v>500</v>
       </c>
-      <c r="H103" s="2" t="str">
+      <c r="H103" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7960,7 +8229,7 @@
       <c r="F104">
         <v>500</v>
       </c>
-      <c r="H104" s="2" t="str">
+      <c r="H104" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -7984,7 +8253,7 @@
       <c r="F105">
         <v>500</v>
       </c>
-      <c r="H105" s="2" t="str">
+      <c r="H105" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8008,7 +8277,7 @@
       <c r="F106">
         <v>500</v>
       </c>
-      <c r="H106" s="2" t="str">
+      <c r="H106" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8032,7 +8301,7 @@
       <c r="F107">
         <v>500</v>
       </c>
-      <c r="H107" s="2" t="str">
+      <c r="H107" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8056,7 +8325,7 @@
       <c r="F108">
         <v>500</v>
       </c>
-      <c r="H108" s="2" t="str">
+      <c r="H108" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8080,7 +8349,7 @@
       <c r="F109">
         <v>500</v>
       </c>
-      <c r="H109" s="2" t="str">
+      <c r="H109" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8104,7 +8373,7 @@
       <c r="F110">
         <v>500</v>
       </c>
-      <c r="H110" s="2" t="str">
+      <c r="H110" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8128,7 +8397,7 @@
       <c r="F111">
         <v>500</v>
       </c>
-      <c r="H111" s="2" t="str">
+      <c r="H111" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8152,7 +8421,7 @@
       <c r="F112">
         <v>500</v>
       </c>
-      <c r="H112" s="2" t="str">
+      <c r="H112" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8176,7 +8445,7 @@
       <c r="F113">
         <v>489.7</v>
       </c>
-      <c r="H113" s="2" t="str">
+      <c r="H113" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8200,7 +8469,7 @@
       <c r="F114">
         <v>650</v>
       </c>
-      <c r="H114" s="2" t="str">
+      <c r="H114" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8224,7 +8493,7 @@
       <c r="F115">
         <v>700</v>
       </c>
-      <c r="H115" s="2" t="str">
+      <c r="H115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8248,7 +8517,7 @@
       <c r="F116">
         <v>750</v>
       </c>
-      <c r="H116" s="2" t="str">
+      <c r="H116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8272,7 +8541,7 @@
       <c r="F117">
         <v>600</v>
       </c>
-      <c r="H117" s="2" t="str">
+      <c r="H117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8296,7 +8565,7 @@
       <c r="F118">
         <v>600</v>
       </c>
-      <c r="H118" s="2" t="str">
+      <c r="H118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8320,7 +8589,7 @@
       <c r="F119">
         <v>600</v>
       </c>
-      <c r="H119" s="2" t="str">
+      <c r="H119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8344,7 +8613,7 @@
       <c r="F120">
         <v>600</v>
       </c>
-      <c r="H120" s="2" t="str">
+      <c r="H120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8368,7 +8637,7 @@
       <c r="F121">
         <v>650</v>
       </c>
-      <c r="H121" s="2" t="str">
+      <c r="H121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8392,7 +8661,7 @@
       <c r="F122">
         <v>700</v>
       </c>
-      <c r="H122" s="2" t="str">
+      <c r="H122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8416,7 +8685,7 @@
       <c r="F123">
         <v>706</v>
       </c>
-      <c r="H123" s="2" t="str">
+      <c r="H123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8440,7 +8709,7 @@
       <c r="F124">
         <v>999.7</v>
       </c>
-      <c r="H124" s="2" t="str">
+      <c r="H124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8464,7 +8733,7 @@
       <c r="F125">
         <v>700</v>
       </c>
-      <c r="H125" s="2" t="str">
+      <c r="H125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8488,7 +8757,7 @@
       <c r="F126">
         <v>390</v>
       </c>
-      <c r="H126" s="2" t="str">
+      <c r="H126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8512,7 +8781,7 @@
       <c r="F127">
         <v>580</v>
       </c>
-      <c r="H127" s="2" t="str">
+      <c r="H127" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8536,7 +8805,7 @@
       <c r="F128">
         <v>731</v>
       </c>
-      <c r="H128" s="2" t="str">
+      <c r="H128" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8560,7 +8829,7 @@
       <c r="F129">
         <v>700</v>
       </c>
-      <c r="H129" s="2" t="str">
+      <c r="H129" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8584,7 +8853,7 @@
       <c r="F130">
         <v>700</v>
       </c>
-      <c r="H130" s="2" t="str">
+      <c r="H130" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Hard Capsule</v>
       </c>
@@ -8602,7 +8871,7 @@
       <c r="F131">
         <v>750</v>
       </c>
-      <c r="H131" s="2" t="str">
+      <c r="H131" s="1" t="str">
         <f t="shared" ref="H131:H194" si="2">IF(ISNUMBER(SEARCH("-TB-",A131)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A131)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A131)),"Hard Capsule",
@@ -8631,7 +8900,7 @@
       <c r="F132">
         <v>650</v>
       </c>
-      <c r="H132" s="2" t="str">
+      <c r="H132" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Hard Capsule</v>
       </c>
@@ -8655,7 +8924,7 @@
       <c r="F133">
         <v>780</v>
       </c>
-      <c r="H133" s="2" t="str">
+      <c r="H133" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Hard Capsule</v>
       </c>
@@ -8679,7 +8948,7 @@
       <c r="F134">
         <v>600</v>
       </c>
-      <c r="H134" s="2" t="str">
+      <c r="H134" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Hard Capsule</v>
       </c>
@@ -8697,7 +8966,7 @@
       <c r="F135">
         <v>9499.6</v>
       </c>
-      <c r="H135" s="2" t="str">
+      <c r="H135" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8715,7 +8984,7 @@
       <c r="F136">
         <v>2375.9</v>
       </c>
-      <c r="H136" s="2" t="str">
+      <c r="H136" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8733,7 +9002,7 @@
       <c r="F137">
         <v>15002.5</v>
       </c>
-      <c r="H137" s="2" t="str">
+      <c r="H137" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8751,7 +9020,7 @@
       <c r="F138">
         <v>21727.9</v>
       </c>
-      <c r="H138" s="2" t="str">
+      <c r="H138" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8769,7 +9038,7 @@
       <c r="F139">
         <v>19999.7</v>
       </c>
-      <c r="H139" s="2" t="str">
+      <c r="H139" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8787,7 +9056,7 @@
       <c r="F140">
         <v>20000.5</v>
       </c>
-      <c r="H140" s="2" t="str">
+      <c r="H140" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8805,7 +9074,7 @@
       <c r="F141">
         <v>92000</v>
       </c>
-      <c r="H141" s="2" t="str">
+      <c r="H141" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8823,7 +9092,7 @@
       <c r="F142">
         <v>50000</v>
       </c>
-      <c r="H142" s="2" t="str">
+      <c r="H142" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8841,7 +9110,7 @@
       <c r="F143">
         <v>21398.400000000001</v>
       </c>
-      <c r="H143" s="2" t="str">
+      <c r="H143" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Liquid</v>
       </c>
@@ -8862,7 +9131,7 @@
       <c r="F144">
         <v>300</v>
       </c>
-      <c r="H144" s="2" t="str">
+      <c r="H144" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Powder</v>
       </c>
@@ -8883,7 +9152,7 @@
       <c r="F145">
         <v>330450</v>
       </c>
-      <c r="H145" s="2" t="str">
+      <c r="H145" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Powder</v>
       </c>
@@ -8901,7 +9170,7 @@
       <c r="F146">
         <v>445.8</v>
       </c>
-      <c r="H146" s="2" t="str">
+      <c r="H146" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Powder</v>
       </c>
@@ -8922,7 +9191,7 @@
       <c r="F147">
         <v>1000000</v>
       </c>
-      <c r="H147" s="2" t="str">
+      <c r="H147" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Powder</v>
       </c>
@@ -8940,7 +9209,7 @@
       <c r="F148">
         <v>1</v>
       </c>
-      <c r="H148" s="2" t="str">
+      <c r="H148" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Powder</v>
       </c>
@@ -8958,7 +9227,7 @@
       <c r="F149">
         <v>1000000</v>
       </c>
-      <c r="H149" s="2" t="str">
+      <c r="H149" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Powder</v>
       </c>
@@ -8982,7 +9251,7 @@
       <c r="F150">
         <v>450000</v>
       </c>
-      <c r="H150" s="2" t="str">
+      <c r="H150" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Powder</v>
       </c>
@@ -9006,7 +9275,7 @@
       <c r="F151">
         <v>205</v>
       </c>
-      <c r="H151" s="2" t="str">
+      <c r="H151" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9030,7 +9299,7 @@
       <c r="F152">
         <v>350</v>
       </c>
-      <c r="H152" s="2" t="str">
+      <c r="H152" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9054,7 +9323,7 @@
       <c r="F153">
         <v>420</v>
       </c>
-      <c r="H153" s="2" t="str">
+      <c r="H153" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9078,7 +9347,7 @@
       <c r="F154">
         <v>625</v>
       </c>
-      <c r="H154" s="2" t="str">
+      <c r="H154" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9102,7 +9371,7 @@
       <c r="F155">
         <v>730</v>
       </c>
-      <c r="H155" s="2" t="str">
+      <c r="H155" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9126,7 +9395,7 @@
       <c r="F156">
         <v>500</v>
       </c>
-      <c r="H156" s="2" t="str">
+      <c r="H156" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9150,7 +9419,7 @@
       <c r="F157">
         <v>240</v>
       </c>
-      <c r="H157" s="2" t="str">
+      <c r="H157" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9174,7 +9443,7 @@
       <c r="F158">
         <v>270</v>
       </c>
-      <c r="H158" s="2" t="str">
+      <c r="H158" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9198,7 +9467,7 @@
       <c r="F159">
         <v>614.6</v>
       </c>
-      <c r="H159" s="2" t="str">
+      <c r="H159" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9222,7 +9491,7 @@
       <c r="F160">
         <v>615</v>
       </c>
-      <c r="H160" s="2" t="str">
+      <c r="H160" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9246,7 +9515,7 @@
       <c r="F161">
         <v>1130</v>
       </c>
-      <c r="H161" s="2" t="str">
+      <c r="H161" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9270,7 +9539,7 @@
       <c r="F162">
         <v>1150</v>
       </c>
-      <c r="H162" s="2" t="str">
+      <c r="H162" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9294,7 +9563,7 @@
       <c r="F163">
         <v>1640</v>
       </c>
-      <c r="H163" s="2" t="str">
+      <c r="H163" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9318,7 +9587,7 @@
       <c r="F164">
         <v>1650</v>
       </c>
-      <c r="H164" s="2" t="str">
+      <c r="H164" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9342,7 +9611,7 @@
       <c r="F165">
         <v>1650.2</v>
       </c>
-      <c r="H165" s="2" t="str">
+      <c r="H165" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9366,7 +9635,7 @@
       <c r="F166">
         <v>750</v>
       </c>
-      <c r="H166" s="2" t="str">
+      <c r="H166" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9390,7 +9659,7 @@
       <c r="F167">
         <v>750</v>
       </c>
-      <c r="H167" s="2" t="str">
+      <c r="H167" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9414,7 +9683,7 @@
       <c r="F168">
         <v>1054.0999999999999</v>
       </c>
-      <c r="H168" s="2" t="str">
+      <c r="H168" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9438,7 +9707,7 @@
       <c r="F169">
         <v>1294</v>
       </c>
-      <c r="H169" s="2" t="str">
+      <c r="H169" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9462,7 +9731,7 @@
       <c r="F170">
         <v>1040</v>
       </c>
-      <c r="H170" s="2" t="str">
+      <c r="H170" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9486,7 +9755,7 @@
       <c r="F171">
         <v>240</v>
       </c>
-      <c r="H171" s="2" t="str">
+      <c r="H171" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9510,7 +9779,7 @@
       <c r="F172">
         <v>285</v>
       </c>
-      <c r="H172" s="2" t="str">
+      <c r="H172" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9534,7 +9803,7 @@
       <c r="F173">
         <v>500</v>
       </c>
-      <c r="H173" s="2" t="str">
+      <c r="H173" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9558,7 +9827,7 @@
       <c r="F174">
         <v>500</v>
       </c>
-      <c r="H174" s="2" t="str">
+      <c r="H174" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9582,7 +9851,7 @@
       <c r="F175">
         <v>1035</v>
       </c>
-      <c r="H175" s="2" t="str">
+      <c r="H175" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9603,7 +9872,7 @@
       <c r="F176">
         <v>1050</v>
       </c>
-      <c r="H176" s="2" t="str">
+      <c r="H176" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9627,7 +9896,7 @@
       <c r="F177">
         <v>1049.5</v>
       </c>
-      <c r="H177" s="2" t="str">
+      <c r="H177" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9651,7 +9920,7 @@
       <c r="F178">
         <v>419.5</v>
       </c>
-      <c r="H178" s="2" t="str">
+      <c r="H178" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9675,7 +9944,7 @@
       <c r="F179">
         <v>600</v>
       </c>
-      <c r="H179" s="2" t="str">
+      <c r="H179" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9699,7 +9968,7 @@
       <c r="F180">
         <v>416</v>
       </c>
-      <c r="H180" s="2" t="str">
+      <c r="H180" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9723,7 +9992,7 @@
       <c r="F181">
         <v>325</v>
       </c>
-      <c r="H181" s="2" t="str">
+      <c r="H181" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9747,7 +10016,7 @@
       <c r="F182">
         <v>330</v>
       </c>
-      <c r="H182" s="2" t="str">
+      <c r="H182" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9771,7 +10040,7 @@
       <c r="F183">
         <v>450.1</v>
       </c>
-      <c r="H183" s="2" t="str">
+      <c r="H183" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9795,7 +10064,7 @@
       <c r="F184">
         <v>708</v>
       </c>
-      <c r="H184" s="2" t="str">
+      <c r="H184" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9816,7 +10085,7 @@
       <c r="F185">
         <v>0</v>
       </c>
-      <c r="H185" s="2" t="str">
+      <c r="H185" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9840,7 +10109,7 @@
       <c r="F186">
         <v>500</v>
       </c>
-      <c r="H186" s="2" t="str">
+      <c r="H186" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9861,7 +10130,7 @@
       <c r="F187">
         <v>0</v>
       </c>
-      <c r="H187" s="2" t="str">
+      <c r="H187" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9885,7 +10154,7 @@
       <c r="F188">
         <v>1000.6</v>
       </c>
-      <c r="H188" s="2" t="str">
+      <c r="H188" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9909,7 +10178,7 @@
       <c r="F189">
         <v>1050.0999999999999</v>
       </c>
-      <c r="H189" s="2" t="str">
+      <c r="H189" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9930,7 +10199,7 @@
       <c r="F190">
         <v>1051.5</v>
       </c>
-      <c r="H190" s="2" t="str">
+      <c r="H190" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9954,7 +10223,7 @@
       <c r="F191">
         <v>1100</v>
       </c>
-      <c r="H191" s="2" t="str">
+      <c r="H191" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -9978,7 +10247,7 @@
       <c r="F192">
         <v>1100.2</v>
       </c>
-      <c r="H192" s="2" t="str">
+      <c r="H192" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -10002,7 +10271,7 @@
       <c r="F193">
         <v>1140</v>
       </c>
-      <c r="H193" s="2" t="str">
+      <c r="H193" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -10026,7 +10295,7 @@
       <c r="F194">
         <v>4439.5</v>
       </c>
-      <c r="H194" s="2" t="str">
+      <c r="H194" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Softgel</v>
       </c>
@@ -10050,7 +10319,7 @@
       <c r="F195">
         <v>1300.5</v>
       </c>
-      <c r="H195" s="2" t="str">
+      <c r="H195" s="1" t="str">
         <f t="shared" ref="H195:H258" si="3">IF(ISNUMBER(SEARCH("-TB-",A195)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A195)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A195)),"Hard Capsule",
@@ -10076,7 +10345,7 @@
       <c r="F196">
         <v>1450.2</v>
       </c>
-      <c r="H196" s="2" t="str">
+      <c r="H196" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10100,7 +10369,7 @@
       <c r="F197">
         <v>150</v>
       </c>
-      <c r="H197" s="2" t="str">
+      <c r="H197" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10124,7 +10393,7 @@
       <c r="F198">
         <v>500</v>
       </c>
-      <c r="H198" s="2" t="str">
+      <c r="H198" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10145,7 +10414,7 @@
       <c r="F199">
         <v>730</v>
       </c>
-      <c r="H199" s="2" t="str">
+      <c r="H199" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10169,7 +10438,7 @@
       <c r="F200">
         <v>870</v>
       </c>
-      <c r="H200" s="2" t="str">
+      <c r="H200" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10193,7 +10462,7 @@
       <c r="F201">
         <v>950</v>
       </c>
-      <c r="H201" s="2" t="str">
+      <c r="H201" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10217,7 +10486,7 @@
       <c r="F202">
         <v>50</v>
       </c>
-      <c r="H202" s="2" t="str">
+      <c r="H202" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10241,7 +10510,7 @@
       <c r="F203">
         <v>0</v>
       </c>
-      <c r="H203" s="2" t="str">
+      <c r="H203" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10265,7 +10534,7 @@
       <c r="F204">
         <v>1000</v>
       </c>
-      <c r="H204" s="2" t="str">
+      <c r="H204" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10289,7 +10558,7 @@
       <c r="F205">
         <v>1100</v>
       </c>
-      <c r="H205" s="2" t="str">
+      <c r="H205" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10313,7 +10582,7 @@
       <c r="F206">
         <v>1200</v>
       </c>
-      <c r="H206" s="2" t="str">
+      <c r="H206" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10337,7 +10606,7 @@
       <c r="F207">
         <v>1200</v>
       </c>
-      <c r="H207" s="2" t="str">
+      <c r="H207" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10361,7 +10630,7 @@
       <c r="F208">
         <v>1209.5</v>
       </c>
-      <c r="H208" s="2" t="str">
+      <c r="H208" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10385,7 +10654,7 @@
       <c r="F209">
         <v>1201.2</v>
       </c>
-      <c r="H209" s="2" t="str">
+      <c r="H209" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10409,7 +10678,7 @@
       <c r="F210">
         <v>1300</v>
       </c>
-      <c r="H210" s="2" t="str">
+      <c r="H210" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10433,7 +10702,7 @@
       <c r="F211">
         <v>850</v>
       </c>
-      <c r="H211" s="2" t="str">
+      <c r="H211" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10457,7 +10726,7 @@
       <c r="F212">
         <v>200</v>
       </c>
-      <c r="H212" s="2" t="str">
+      <c r="H212" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10481,7 +10750,7 @@
       <c r="F213">
         <v>201.5</v>
       </c>
-      <c r="H213" s="2" t="str">
+      <c r="H213" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10505,7 +10774,7 @@
       <c r="F214">
         <v>300</v>
       </c>
-      <c r="H214" s="2" t="str">
+      <c r="H214" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10529,7 +10798,7 @@
       <c r="F215">
         <v>300</v>
       </c>
-      <c r="H215" s="2" t="str">
+      <c r="H215" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10553,7 +10822,7 @@
       <c r="F216">
         <v>23</v>
       </c>
-      <c r="H216" s="2" t="str">
+      <c r="H216" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10577,7 +10846,7 @@
       <c r="F217">
         <v>0</v>
       </c>
-      <c r="H217" s="2" t="str">
+      <c r="H217" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10601,7 +10870,7 @@
       <c r="F218">
         <v>550.5</v>
       </c>
-      <c r="H218" s="2" t="str">
+      <c r="H218" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10625,7 +10894,7 @@
       <c r="F219">
         <v>600</v>
       </c>
-      <c r="H219" s="2" t="str">
+      <c r="H219" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10649,7 +10918,7 @@
       <c r="F220">
         <v>600</v>
       </c>
-      <c r="H220" s="2" t="str">
+      <c r="H220" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10673,7 +10942,7 @@
       <c r="F221">
         <v>0</v>
       </c>
-      <c r="H221" s="2" t="str">
+      <c r="H221" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10697,7 +10966,7 @@
       <c r="F222">
         <v>150</v>
       </c>
-      <c r="H222" s="2" t="str">
+      <c r="H222" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10721,7 +10990,7 @@
       <c r="F223">
         <v>1020</v>
       </c>
-      <c r="H223" s="2" t="str">
+      <c r="H223" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10742,7 +11011,7 @@
       <c r="F224">
         <v>1225.2</v>
       </c>
-      <c r="H224" s="2" t="str">
+      <c r="H224" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10766,7 +11035,7 @@
       <c r="F225">
         <v>1100</v>
       </c>
-      <c r="H225" s="2" t="str">
+      <c r="H225" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10790,7 +11059,7 @@
       <c r="F226">
         <v>1100</v>
       </c>
-      <c r="H226" s="2" t="str">
+      <c r="H226" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10814,7 +11083,7 @@
       <c r="F227">
         <v>0</v>
       </c>
-      <c r="H227" s="2" t="str">
+      <c r="H227" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10838,7 +11107,7 @@
       <c r="F228">
         <v>0</v>
       </c>
-      <c r="H228" s="2" t="str">
+      <c r="H228" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10862,7 +11131,7 @@
       <c r="F229">
         <v>1299.7</v>
       </c>
-      <c r="H229" s="2" t="str">
+      <c r="H229" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10886,7 +11155,7 @@
       <c r="F230">
         <v>500.2</v>
       </c>
-      <c r="H230" s="2" t="str">
+      <c r="H230" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10910,7 +11179,7 @@
       <c r="F231">
         <v>730</v>
       </c>
-      <c r="H231" s="2" t="str">
+      <c r="H231" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10934,7 +11203,7 @@
       <c r="F232">
         <v>631.29999999999995</v>
       </c>
-      <c r="H232" s="2" t="str">
+      <c r="H232" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10958,7 +11227,7 @@
       <c r="F233">
         <v>674</v>
       </c>
-      <c r="H233" s="2" t="str">
+      <c r="H233" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -10982,7 +11251,7 @@
       <c r="F234">
         <v>962.1</v>
       </c>
-      <c r="H234" s="2" t="str">
+      <c r="H234" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11006,7 +11275,7 @@
       <c r="F235">
         <v>1000</v>
       </c>
-      <c r="H235" s="2" t="str">
+      <c r="H235" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11030,7 +11299,7 @@
       <c r="F236">
         <v>385</v>
       </c>
-      <c r="H236" s="2" t="str">
+      <c r="H236" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11054,7 +11323,7 @@
       <c r="F237">
         <v>600</v>
       </c>
-      <c r="H237" s="2" t="str">
+      <c r="H237" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11078,7 +11347,7 @@
       <c r="F238">
         <v>800</v>
       </c>
-      <c r="H238" s="2" t="str">
+      <c r="H238" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11102,7 +11371,7 @@
       <c r="F239">
         <v>320</v>
       </c>
-      <c r="H239" s="2" t="str">
+      <c r="H239" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11126,7 +11395,7 @@
       <c r="F240">
         <v>360</v>
       </c>
-      <c r="H240" s="2" t="str">
+      <c r="H240" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11150,7 +11419,7 @@
       <c r="F241">
         <v>385</v>
       </c>
-      <c r="H241" s="2" t="str">
+      <c r="H241" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11174,7 +11443,7 @@
       <c r="F242">
         <v>600.1</v>
       </c>
-      <c r="H242" s="2" t="str">
+      <c r="H242" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11198,7 +11467,7 @@
       <c r="F243">
         <v>600.1</v>
       </c>
-      <c r="H243" s="2" t="str">
+      <c r="H243" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11222,7 +11491,7 @@
       <c r="F244">
         <v>209.9</v>
       </c>
-      <c r="H244" s="2" t="str">
+      <c r="H244" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11246,7 +11515,7 @@
       <c r="F245">
         <v>1699.8</v>
       </c>
-      <c r="H245" s="2" t="str">
+      <c r="H245" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11270,7 +11539,7 @@
       <c r="F246">
         <v>999.4</v>
       </c>
-      <c r="H246" s="2" t="str">
+      <c r="H246" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11294,7 +11563,7 @@
       <c r="F247">
         <v>1000</v>
       </c>
-      <c r="H247" s="2" t="str">
+      <c r="H247" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11318,7 +11587,7 @@
       <c r="F248">
         <v>1111</v>
       </c>
-      <c r="H248" s="2" t="str">
+      <c r="H248" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11342,7 +11611,7 @@
       <c r="F249">
         <v>940</v>
       </c>
-      <c r="H249" s="2" t="str">
+      <c r="H249" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11360,7 +11629,7 @@
       <c r="F250">
         <v>966.6</v>
       </c>
-      <c r="H250" s="2" t="str">
+      <c r="H250" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11384,7 +11653,7 @@
       <c r="F251">
         <v>1200</v>
       </c>
-      <c r="H251" s="2" t="str">
+      <c r="H251" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11408,7 +11677,7 @@
       <c r="F252">
         <v>250</v>
       </c>
-      <c r="H252" s="2" t="str">
+      <c r="H252" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11432,7 +11701,7 @@
       <c r="F253">
         <v>1100</v>
       </c>
-      <c r="H253" s="2" t="str">
+      <c r="H253" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11456,7 +11725,7 @@
       <c r="F254">
         <v>619.9</v>
       </c>
-      <c r="H254" s="2" t="str">
+      <c r="H254" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11480,7 +11749,7 @@
       <c r="F255">
         <v>1100</v>
       </c>
-      <c r="H255" s="2" t="str">
+      <c r="H255" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11504,7 +11773,7 @@
       <c r="F256">
         <v>500</v>
       </c>
-      <c r="H256" s="2" t="str">
+      <c r="H256" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11528,7 +11797,7 @@
       <c r="F257">
         <v>500</v>
       </c>
-      <c r="H257" s="2" t="str">
+      <c r="H257" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11552,7 +11821,7 @@
       <c r="F258">
         <v>500</v>
       </c>
-      <c r="H258" s="2" t="str">
+      <c r="H258" s="1" t="str">
         <f t="shared" si="3"/>
         <v>Softgel</v>
       </c>
@@ -11576,7 +11845,7 @@
       <c r="F259">
         <v>500</v>
       </c>
-      <c r="H259" s="2" t="str">
+      <c r="H259" s="1" t="str">
         <f t="shared" ref="H259:H322" si="4">IF(ISNUMBER(SEARCH("-TB-",A259)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A259)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A259)),"Hard Capsule",
@@ -11605,7 +11874,7 @@
       <c r="F260">
         <v>500</v>
       </c>
-      <c r="H260" s="2" t="str">
+      <c r="H260" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11629,7 +11898,7 @@
       <c r="F261">
         <v>500</v>
       </c>
-      <c r="H261" s="2" t="str">
+      <c r="H261" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11653,7 +11922,7 @@
       <c r="F262">
         <v>500</v>
       </c>
-      <c r="H262" s="2" t="str">
+      <c r="H262" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11677,7 +11946,7 @@
       <c r="F263">
         <v>580</v>
       </c>
-      <c r="H263" s="2" t="str">
+      <c r="H263" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11701,7 +11970,7 @@
       <c r="F264">
         <v>599.9</v>
       </c>
-      <c r="H264" s="2" t="str">
+      <c r="H264" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11725,7 +11994,7 @@
       <c r="F265">
         <v>1000</v>
       </c>
-      <c r="H265" s="2" t="str">
+      <c r="H265" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11749,7 +12018,7 @@
       <c r="F266">
         <v>1039.0999999999999</v>
       </c>
-      <c r="H266" s="2" t="str">
+      <c r="H266" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11773,7 +12042,7 @@
       <c r="F267">
         <v>1019.5</v>
       </c>
-      <c r="H267" s="2" t="str">
+      <c r="H267" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11797,7 +12066,7 @@
       <c r="F268">
         <v>1050</v>
       </c>
-      <c r="H268" s="2" t="str">
+      <c r="H268" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11821,7 +12090,7 @@
       <c r="F269">
         <v>1210</v>
       </c>
-      <c r="H269" s="2" t="str">
+      <c r="H269" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11845,7 +12114,7 @@
       <c r="F270">
         <v>1299</v>
       </c>
-      <c r="H270" s="2" t="str">
+      <c r="H270" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11869,7 +12138,7 @@
       <c r="F271">
         <v>1299.5</v>
       </c>
-      <c r="H271" s="2" t="str">
+      <c r="H271" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11893,7 +12162,7 @@
       <c r="F272">
         <v>799.4</v>
       </c>
-      <c r="H272" s="2" t="str">
+      <c r="H272" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11917,7 +12186,7 @@
       <c r="F273">
         <v>800</v>
       </c>
-      <c r="H273" s="2" t="str">
+      <c r="H273" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11941,7 +12210,7 @@
       <c r="F274">
         <v>1000</v>
       </c>
-      <c r="H274" s="2" t="str">
+      <c r="H274" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11965,7 +12234,7 @@
       <c r="F275">
         <v>1100</v>
       </c>
-      <c r="H275" s="2" t="str">
+      <c r="H275" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -11989,7 +12258,7 @@
       <c r="F276">
         <v>600</v>
       </c>
-      <c r="H276" s="2" t="str">
+      <c r="H276" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12013,7 +12282,7 @@
       <c r="F277">
         <v>600</v>
       </c>
-      <c r="H277" s="2" t="str">
+      <c r="H277" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12037,7 +12306,7 @@
       <c r="F278">
         <v>630</v>
       </c>
-      <c r="H278" s="2" t="str">
+      <c r="H278" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12061,7 +12330,7 @@
       <c r="F279">
         <v>650</v>
       </c>
-      <c r="H279" s="2" t="str">
+      <c r="H279" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12085,7 +12354,7 @@
       <c r="F280">
         <v>800</v>
       </c>
-      <c r="H280" s="2" t="str">
+      <c r="H280" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12109,7 +12378,7 @@
       <c r="F281">
         <v>850</v>
       </c>
-      <c r="H281" s="2" t="str">
+      <c r="H281" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12133,7 +12402,7 @@
       <c r="F282">
         <v>870</v>
       </c>
-      <c r="H282" s="2" t="str">
+      <c r="H282" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12157,7 +12426,7 @@
       <c r="F283">
         <v>600</v>
       </c>
-      <c r="H283" s="2" t="str">
+      <c r="H283" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12181,7 +12450,7 @@
       <c r="F284">
         <v>600</v>
       </c>
-      <c r="H284" s="2" t="str">
+      <c r="H284" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12205,7 +12474,7 @@
       <c r="F285">
         <v>1040</v>
       </c>
-      <c r="H285" s="2" t="str">
+      <c r="H285" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12229,7 +12498,7 @@
       <c r="F286">
         <v>1160.3</v>
       </c>
-      <c r="H286" s="2" t="str">
+      <c r="H286" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12253,7 +12522,7 @@
       <c r="F287">
         <v>1200</v>
       </c>
-      <c r="H287" s="2" t="str">
+      <c r="H287" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12277,7 +12546,7 @@
       <c r="F288">
         <v>1200</v>
       </c>
-      <c r="H288" s="2" t="str">
+      <c r="H288" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12301,7 +12570,7 @@
       <c r="F289">
         <v>500</v>
       </c>
-      <c r="H289" s="2" t="str">
+      <c r="H289" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12322,7 +12591,7 @@
       <c r="F290">
         <v>1</v>
       </c>
-      <c r="H290" s="2" t="str">
+      <c r="H290" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12346,7 +12615,7 @@
       <c r="F291">
         <v>1200</v>
       </c>
-      <c r="H291" s="2" t="str">
+      <c r="H291" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12370,7 +12639,7 @@
       <c r="F292">
         <v>580</v>
       </c>
-      <c r="H292" s="2" t="str">
+      <c r="H292" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12394,7 +12663,7 @@
       <c r="F293">
         <v>600</v>
       </c>
-      <c r="H293" s="2" t="str">
+      <c r="H293" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12418,7 +12687,7 @@
       <c r="F294">
         <v>1200</v>
       </c>
-      <c r="H294" s="2" t="str">
+      <c r="H294" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12442,7 +12711,7 @@
       <c r="F295">
         <v>1180</v>
       </c>
-      <c r="H295" s="2" t="str">
+      <c r="H295" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12466,7 +12735,7 @@
       <c r="F296">
         <v>0</v>
       </c>
-      <c r="H296" s="2" t="str">
+      <c r="H296" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12490,7 +12759,7 @@
       <c r="F297">
         <v>300</v>
       </c>
-      <c r="H297" s="2" t="str">
+      <c r="H297" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12514,7 +12783,7 @@
       <c r="F298">
         <v>400</v>
       </c>
-      <c r="H298" s="2" t="str">
+      <c r="H298" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12538,7 +12807,7 @@
       <c r="F299">
         <v>246.1</v>
       </c>
-      <c r="H299" s="2" t="str">
+      <c r="H299" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12562,7 +12831,7 @@
       <c r="F300">
         <v>450</v>
       </c>
-      <c r="H300" s="2" t="str">
+      <c r="H300" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12586,7 +12855,7 @@
       <c r="F301">
         <v>500</v>
       </c>
-      <c r="H301" s="2" t="str">
+      <c r="H301" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12610,7 +12879,7 @@
       <c r="F302">
         <v>500</v>
       </c>
-      <c r="H302" s="2" t="str">
+      <c r="H302" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12634,7 +12903,7 @@
       <c r="F303">
         <v>500</v>
       </c>
-      <c r="H303" s="2" t="str">
+      <c r="H303" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12658,7 +12927,7 @@
       <c r="F304">
         <v>500</v>
       </c>
-      <c r="H304" s="2" t="str">
+      <c r="H304" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12682,7 +12951,7 @@
       <c r="F305">
         <v>495.8</v>
       </c>
-      <c r="H305" s="2" t="str">
+      <c r="H305" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12706,7 +12975,7 @@
       <c r="F306">
         <v>600</v>
       </c>
-      <c r="H306" s="2" t="str">
+      <c r="H306" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12730,7 +12999,7 @@
       <c r="F307">
         <v>600</v>
       </c>
-      <c r="H307" s="2" t="str">
+      <c r="H307" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12754,7 +13023,7 @@
       <c r="F308">
         <v>650</v>
       </c>
-      <c r="H308" s="2" t="str">
+      <c r="H308" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12778,7 +13047,7 @@
       <c r="F309">
         <v>800</v>
       </c>
-      <c r="H309" s="2" t="str">
+      <c r="H309" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12802,7 +13071,7 @@
       <c r="F310">
         <v>1190</v>
       </c>
-      <c r="H310" s="2" t="str">
+      <c r="H310" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12826,7 +13095,7 @@
       <c r="F311">
         <v>1201.5</v>
       </c>
-      <c r="H311" s="2" t="str">
+      <c r="H311" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12850,7 +13119,7 @@
       <c r="F312">
         <v>1300</v>
       </c>
-      <c r="H312" s="2" t="str">
+      <c r="H312" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12874,7 +13143,7 @@
       <c r="F313">
         <v>1300</v>
       </c>
-      <c r="H313" s="2" t="str">
+      <c r="H313" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12898,7 +13167,7 @@
       <c r="F314">
         <v>1310</v>
       </c>
-      <c r="H314" s="2" t="str">
+      <c r="H314" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12922,7 +13191,7 @@
       <c r="F315">
         <v>1520</v>
       </c>
-      <c r="H315" s="2" t="str">
+      <c r="H315" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12946,7 +13215,7 @@
       <c r="F316">
         <v>1520</v>
       </c>
-      <c r="H316" s="2" t="str">
+      <c r="H316" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12970,7 +13239,7 @@
       <c r="F317">
         <v>1205</v>
       </c>
-      <c r="H317" s="2" t="str">
+      <c r="H317" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -12994,7 +13263,7 @@
       <c r="F318">
         <v>1160</v>
       </c>
-      <c r="H318" s="2" t="str">
+      <c r="H318" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -13018,7 +13287,7 @@
       <c r="F319">
         <v>600</v>
       </c>
-      <c r="H319" s="2" t="str">
+      <c r="H319" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -13042,7 +13311,7 @@
       <c r="F320">
         <v>1000</v>
       </c>
-      <c r="H320" s="2" t="str">
+      <c r="H320" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -13066,7 +13335,7 @@
       <c r="F321">
         <v>650</v>
       </c>
-      <c r="H321" s="2" t="str">
+      <c r="H321" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -13090,7 +13359,7 @@
       <c r="F322">
         <v>150</v>
       </c>
-      <c r="H322" s="2" t="str">
+      <c r="H322" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Softgel</v>
       </c>
@@ -13114,7 +13383,7 @@
       <c r="F323">
         <v>1000</v>
       </c>
-      <c r="H323" s="2" t="str">
+      <c r="H323" s="1" t="str">
         <f t="shared" ref="H323:H386" si="5">IF(ISNUMBER(SEARCH("-TB-",A323)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A323)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A323)),"Hard Capsule",
@@ -13143,7 +13412,7 @@
       <c r="F324">
         <v>630</v>
       </c>
-      <c r="H324" s="2" t="str">
+      <c r="H324" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13167,7 +13436,7 @@
       <c r="F325">
         <v>666</v>
       </c>
-      <c r="H325" s="2" t="str">
+      <c r="H325" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13191,7 +13460,7 @@
       <c r="F326">
         <v>500</v>
       </c>
-      <c r="H326" s="2" t="str">
+      <c r="H326" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13215,7 +13484,7 @@
       <c r="F327">
         <v>1000</v>
       </c>
-      <c r="H327" s="2" t="str">
+      <c r="H327" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13239,7 +13508,7 @@
       <c r="F328">
         <v>530</v>
       </c>
-      <c r="H328" s="2" t="str">
+      <c r="H328" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13260,7 +13529,7 @@
       <c r="F329">
         <v>0</v>
       </c>
-      <c r="H329" s="2" t="str">
+      <c r="H329" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13284,7 +13553,7 @@
       <c r="F330">
         <v>300</v>
       </c>
-      <c r="H330" s="2" t="str">
+      <c r="H330" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13308,7 +13577,7 @@
       <c r="F331">
         <v>1050</v>
       </c>
-      <c r="H331" s="2" t="str">
+      <c r="H331" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13332,7 +13601,7 @@
       <c r="F332">
         <v>498.2</v>
       </c>
-      <c r="H332" s="2" t="str">
+      <c r="H332" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13356,7 +13625,7 @@
       <c r="F333">
         <v>500</v>
       </c>
-      <c r="H333" s="2" t="str">
+      <c r="H333" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13380,7 +13649,7 @@
       <c r="F334">
         <v>500</v>
       </c>
-      <c r="H334" s="2" t="str">
+      <c r="H334" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13404,7 +13673,7 @@
       <c r="F335">
         <v>506</v>
       </c>
-      <c r="H335" s="2" t="str">
+      <c r="H335" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13428,7 +13697,7 @@
       <c r="F336">
         <v>500</v>
       </c>
-      <c r="H336" s="2" t="str">
+      <c r="H336" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13452,7 +13721,7 @@
       <c r="F337">
         <v>500</v>
       </c>
-      <c r="H337" s="2" t="str">
+      <c r="H337" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13476,7 +13745,7 @@
       <c r="F338">
         <v>500.2</v>
       </c>
-      <c r="H338" s="2" t="str">
+      <c r="H338" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13500,7 +13769,7 @@
       <c r="F339">
         <v>500</v>
       </c>
-      <c r="H339" s="2" t="str">
+      <c r="H339" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13524,7 +13793,7 @@
       <c r="F340">
         <v>570</v>
       </c>
-      <c r="H340" s="2" t="str">
+      <c r="H340" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13548,7 +13817,7 @@
       <c r="F341">
         <v>600</v>
       </c>
-      <c r="H341" s="2" t="str">
+      <c r="H341" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13572,7 +13841,7 @@
       <c r="F342">
         <v>600</v>
       </c>
-      <c r="H342" s="2" t="str">
+      <c r="H342" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13596,7 +13865,7 @@
       <c r="F343">
         <v>600</v>
       </c>
-      <c r="H343" s="2" t="str">
+      <c r="H343" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13620,7 +13889,7 @@
       <c r="F344">
         <v>1000</v>
       </c>
-      <c r="H344" s="2" t="str">
+      <c r="H344" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13644,7 +13913,7 @@
       <c r="F345">
         <v>600</v>
       </c>
-      <c r="H345" s="2" t="str">
+      <c r="H345" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13668,7 +13937,7 @@
       <c r="F346">
         <v>650</v>
       </c>
-      <c r="H346" s="2" t="str">
+      <c r="H346" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13692,7 +13961,7 @@
       <c r="F347">
         <v>1000</v>
       </c>
-      <c r="H347" s="2" t="str">
+      <c r="H347" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13716,7 +13985,7 @@
       <c r="F348">
         <v>1000</v>
       </c>
-      <c r="H348" s="2" t="str">
+      <c r="H348" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13740,7 +14009,7 @@
       <c r="F349">
         <v>1040.5999999999999</v>
       </c>
-      <c r="H349" s="2" t="str">
+      <c r="H349" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13764,7 +14033,7 @@
       <c r="F350">
         <v>980.3</v>
       </c>
-      <c r="H350" s="2" t="str">
+      <c r="H350" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13788,7 +14057,7 @@
       <c r="F351">
         <v>1100.0999999999999</v>
       </c>
-      <c r="H351" s="2" t="str">
+      <c r="H351" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13812,7 +14081,7 @@
       <c r="F352">
         <v>1260</v>
       </c>
-      <c r="H352" s="2" t="str">
+      <c r="H352" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13836,7 +14105,7 @@
       <c r="F353">
         <v>1170</v>
       </c>
-      <c r="H353" s="2" t="str">
+      <c r="H353" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13860,7 +14129,7 @@
       <c r="F354">
         <v>1299.7</v>
       </c>
-      <c r="H354" s="2" t="str">
+      <c r="H354" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13884,7 +14153,7 @@
       <c r="F355">
         <v>600</v>
       </c>
-      <c r="H355" s="2" t="str">
+      <c r="H355" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13908,7 +14177,7 @@
       <c r="F356">
         <v>750</v>
       </c>
-      <c r="H356" s="2" t="str">
+      <c r="H356" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13932,7 +14201,7 @@
       <c r="F357">
         <v>500</v>
       </c>
-      <c r="H357" s="2" t="str">
+      <c r="H357" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13956,7 +14225,7 @@
       <c r="F358">
         <v>1500.2</v>
       </c>
-      <c r="H358" s="2" t="str">
+      <c r="H358" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -13980,7 +14249,7 @@
       <c r="F359">
         <v>1200.4000000000001</v>
       </c>
-      <c r="H359" s="2" t="str">
+      <c r="H359" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14004,7 +14273,7 @@
       <c r="F360">
         <v>1300</v>
       </c>
-      <c r="H360" s="2" t="str">
+      <c r="H360" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14028,7 +14297,7 @@
       <c r="F361">
         <v>1300</v>
       </c>
-      <c r="H361" s="2" t="str">
+      <c r="H361" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14052,7 +14321,7 @@
       <c r="F362">
         <v>1300</v>
       </c>
-      <c r="H362" s="2" t="str">
+      <c r="H362" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14076,7 +14345,7 @@
       <c r="F363">
         <v>1300</v>
       </c>
-      <c r="H363" s="2" t="str">
+      <c r="H363" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14100,7 +14369,7 @@
       <c r="F364">
         <v>1300.3</v>
       </c>
-      <c r="H364" s="2" t="str">
+      <c r="H364" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14124,7 +14393,7 @@
       <c r="F365">
         <v>790</v>
       </c>
-      <c r="H365" s="2" t="str">
+      <c r="H365" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14148,7 +14417,7 @@
       <c r="F366">
         <v>1039</v>
       </c>
-      <c r="H366" s="2" t="str">
+      <c r="H366" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14172,7 +14441,7 @@
       <c r="F367">
         <v>1050</v>
       </c>
-      <c r="H367" s="2" t="str">
+      <c r="H367" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14196,7 +14465,7 @@
       <c r="F368">
         <v>0</v>
       </c>
-      <c r="H368" s="2" t="str">
+      <c r="H368" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14220,7 +14489,7 @@
       <c r="F369">
         <v>1208.8</v>
       </c>
-      <c r="H369" s="2" t="str">
+      <c r="H369" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14244,7 +14513,7 @@
       <c r="F370">
         <v>1213.5999999999999</v>
       </c>
-      <c r="H370" s="2" t="str">
+      <c r="H370" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14268,7 +14537,7 @@
       <c r="F371">
         <v>1209.5</v>
       </c>
-      <c r="H371" s="2" t="str">
+      <c r="H371" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14292,7 +14561,7 @@
       <c r="F372">
         <v>1218</v>
       </c>
-      <c r="H372" s="2" t="str">
+      <c r="H372" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14316,7 +14585,7 @@
       <c r="F373">
         <v>1305.4000000000001</v>
       </c>
-      <c r="H373" s="2" t="str">
+      <c r="H373" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14340,7 +14609,7 @@
       <c r="F374">
         <v>1311</v>
       </c>
-      <c r="H374" s="2" t="str">
+      <c r="H374" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14364,7 +14633,7 @@
       <c r="F375">
         <v>1308.7</v>
       </c>
-      <c r="H375" s="2" t="str">
+      <c r="H375" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14388,7 +14657,7 @@
       <c r="F376">
         <v>1309</v>
       </c>
-      <c r="H376" s="2" t="str">
+      <c r="H376" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14412,7 +14681,7 @@
       <c r="F377">
         <v>1311.9</v>
       </c>
-      <c r="H377" s="2" t="str">
+      <c r="H377" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14436,7 +14705,7 @@
       <c r="F378">
         <v>1314.4</v>
       </c>
-      <c r="H378" s="2" t="str">
+      <c r="H378" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14460,7 +14729,7 @@
       <c r="F379">
         <v>1361</v>
       </c>
-      <c r="H379" s="2" t="str">
+      <c r="H379" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14484,7 +14753,7 @@
       <c r="F380">
         <v>1400</v>
       </c>
-      <c r="H380" s="2" t="str">
+      <c r="H380" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14508,7 +14777,7 @@
       <c r="F381">
         <v>152.30000000000001</v>
       </c>
-      <c r="H381" s="2" t="str">
+      <c r="H381" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14532,7 +14801,7 @@
       <c r="F382">
         <v>576.1</v>
       </c>
-      <c r="H382" s="2" t="str">
+      <c r="H382" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14556,7 +14825,7 @@
       <c r="F383">
         <v>576.1</v>
       </c>
-      <c r="H383" s="2" t="str">
+      <c r="H383" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14580,7 +14849,7 @@
       <c r="F384">
         <v>576.1</v>
       </c>
-      <c r="H384" s="2" t="str">
+      <c r="H384" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14604,7 +14873,7 @@
       <c r="F385">
         <v>576.1</v>
       </c>
-      <c r="H385" s="2" t="str">
+      <c r="H385" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14628,7 +14897,7 @@
       <c r="F386">
         <v>576.1</v>
       </c>
-      <c r="H386" s="2" t="str">
+      <c r="H386" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Softgel</v>
       </c>
@@ -14652,7 +14921,7 @@
       <c r="F387">
         <v>576.1</v>
       </c>
-      <c r="H387" s="2" t="str">
+      <c r="H387" s="1" t="str">
         <f t="shared" ref="H387:H450" si="6">IF(ISNUMBER(SEARCH("-TB-",A387)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A387)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A387)),"Hard Capsule",
@@ -14681,7 +14950,7 @@
       <c r="F388">
         <v>576.1</v>
       </c>
-      <c r="H388" s="2" t="str">
+      <c r="H388" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14705,7 +14974,7 @@
       <c r="F389">
         <v>576.1</v>
       </c>
-      <c r="H389" s="2" t="str">
+      <c r="H389" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14729,7 +14998,7 @@
       <c r="F390">
         <v>576.1</v>
       </c>
-      <c r="H390" s="2" t="str">
+      <c r="H390" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14753,7 +15022,7 @@
       <c r="F391">
         <v>576.1</v>
       </c>
-      <c r="H391" s="2" t="str">
+      <c r="H391" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14777,7 +15046,7 @@
       <c r="F392">
         <v>576.1</v>
       </c>
-      <c r="H392" s="2" t="str">
+      <c r="H392" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14801,7 +15070,7 @@
       <c r="F393">
         <v>576.1</v>
       </c>
-      <c r="H393" s="2" t="str">
+      <c r="H393" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14825,7 +15094,7 @@
       <c r="F394">
         <v>576.1</v>
       </c>
-      <c r="H394" s="2" t="str">
+      <c r="H394" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14849,7 +15118,7 @@
       <c r="F395">
         <v>900</v>
       </c>
-      <c r="H395" s="2" t="str">
+      <c r="H395" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14873,7 +15142,7 @@
       <c r="F396">
         <v>1210</v>
       </c>
-      <c r="H396" s="2" t="str">
+      <c r="H396" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14897,7 +15166,7 @@
       <c r="F397">
         <v>1306.8</v>
       </c>
-      <c r="H397" s="2" t="str">
+      <c r="H397" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14921,7 +15190,7 @@
       <c r="F398">
         <v>1310</v>
       </c>
-      <c r="H398" s="2" t="str">
+      <c r="H398" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14945,7 +15214,7 @@
       <c r="F399">
         <v>1310</v>
       </c>
-      <c r="H399" s="2" t="str">
+      <c r="H399" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14969,7 +15238,7 @@
       <c r="F400">
         <v>1309</v>
       </c>
-      <c r="H400" s="2" t="str">
+      <c r="H400" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -14993,7 +15262,7 @@
       <c r="F401">
         <v>596.4</v>
       </c>
-      <c r="H401" s="2" t="str">
+      <c r="H401" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15017,7 +15286,7 @@
       <c r="F402">
         <v>596.4</v>
       </c>
-      <c r="H402" s="2" t="str">
+      <c r="H402" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15041,7 +15310,7 @@
       <c r="F403">
         <v>586</v>
       </c>
-      <c r="H403" s="2" t="str">
+      <c r="H403" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15065,7 +15334,7 @@
       <c r="F404">
         <v>699.4</v>
       </c>
-      <c r="H404" s="2" t="str">
+      <c r="H404" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15089,7 +15358,7 @@
       <c r="F405">
         <v>760</v>
       </c>
-      <c r="H405" s="2" t="str">
+      <c r="H405" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15113,7 +15382,7 @@
       <c r="F406">
         <v>820</v>
       </c>
-      <c r="H406" s="2" t="str">
+      <c r="H406" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15137,7 +15406,7 @@
       <c r="F407">
         <v>1020</v>
       </c>
-      <c r="H407" s="2" t="str">
+      <c r="H407" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15161,7 +15430,7 @@
       <c r="F408">
         <v>1200</v>
       </c>
-      <c r="H408" s="2" t="str">
+      <c r="H408" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15185,7 +15454,7 @@
       <c r="F409">
         <v>1206</v>
       </c>
-      <c r="H409" s="2" t="str">
+      <c r="H409" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15209,7 +15478,7 @@
       <c r="F410">
         <v>1200</v>
       </c>
-      <c r="H410" s="2" t="str">
+      <c r="H410" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15233,7 +15502,7 @@
       <c r="F411">
         <v>600</v>
       </c>
-      <c r="H411" s="2" t="str">
+      <c r="H411" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15257,7 +15526,7 @@
       <c r="F412">
         <v>720.3</v>
       </c>
-      <c r="H412" s="2" t="str">
+      <c r="H412" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15281,7 +15550,7 @@
       <c r="F413">
         <v>800</v>
       </c>
-      <c r="H413" s="2" t="str">
+      <c r="H413" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15305,7 +15574,7 @@
       <c r="F414">
         <v>1000</v>
       </c>
-      <c r="H414" s="2" t="str">
+      <c r="H414" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15329,7 +15598,7 @@
       <c r="F415">
         <v>1100.0999999999999</v>
       </c>
-      <c r="H415" s="2" t="str">
+      <c r="H415" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15353,7 +15622,7 @@
       <c r="F416">
         <v>1260</v>
       </c>
-      <c r="H416" s="2" t="str">
+      <c r="H416" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15377,7 +15646,7 @@
       <c r="F417">
         <v>1300</v>
       </c>
-      <c r="H417" s="2" t="str">
+      <c r="H417" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15401,7 +15670,7 @@
       <c r="F418">
         <v>1300.0999999999999</v>
       </c>
-      <c r="H418" s="2" t="str">
+      <c r="H418" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15425,7 +15694,7 @@
       <c r="F419">
         <v>1300.0999999999999</v>
       </c>
-      <c r="H419" s="2" t="str">
+      <c r="H419" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15449,7 +15718,7 @@
       <c r="F420">
         <v>1300.0999999999999</v>
       </c>
-      <c r="H420" s="2" t="str">
+      <c r="H420" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15473,7 +15742,7 @@
       <c r="F421">
         <v>1300</v>
       </c>
-      <c r="H421" s="2" t="str">
+      <c r="H421" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15497,7 +15766,7 @@
       <c r="F422">
         <v>500</v>
       </c>
-      <c r="H422" s="2" t="str">
+      <c r="H422" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15521,7 +15790,7 @@
       <c r="F423">
         <v>600</v>
       </c>
-      <c r="H423" s="2" t="str">
+      <c r="H423" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15545,7 +15814,7 @@
       <c r="F424">
         <v>1000</v>
       </c>
-      <c r="H424" s="2" t="str">
+      <c r="H424" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15569,7 +15838,7 @@
       <c r="F425">
         <v>150</v>
       </c>
-      <c r="H425" s="2" t="str">
+      <c r="H425" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15593,7 +15862,7 @@
       <c r="F426">
         <v>150</v>
       </c>
-      <c r="H426" s="2" t="str">
+      <c r="H426" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15617,7 +15886,7 @@
       <c r="F427">
         <v>250</v>
       </c>
-      <c r="H427" s="2" t="str">
+      <c r="H427" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15635,7 +15904,7 @@
       <c r="F428">
         <v>550</v>
       </c>
-      <c r="H428" s="2" t="str">
+      <c r="H428" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Softgel</v>
       </c>
@@ -15653,7 +15922,7 @@
       <c r="F429">
         <v>5799</v>
       </c>
-      <c r="H429" s="2" t="str">
+      <c r="H429" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sachet</v>
       </c>
@@ -15671,7 +15940,7 @@
       <c r="F430">
         <v>2000</v>
       </c>
-      <c r="H430" s="2" t="str">
+      <c r="H430" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sachet</v>
       </c>
@@ -15689,7 +15958,7 @@
       <c r="F431">
         <v>5048</v>
       </c>
-      <c r="H431" s="2" t="str">
+      <c r="H431" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sachet</v>
       </c>
@@ -15707,7 +15976,7 @@
       <c r="F432">
         <v>6865</v>
       </c>
-      <c r="H432" s="2" t="str">
+      <c r="H432" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sachet</v>
       </c>
@@ -15725,7 +15994,7 @@
       <c r="F433">
         <v>2000</v>
       </c>
-      <c r="H433" s="2" t="str">
+      <c r="H433" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sachet</v>
       </c>
@@ -15749,7 +16018,7 @@
       <c r="F434">
         <v>1070</v>
       </c>
-      <c r="H434" s="2" t="str">
+      <c r="H434" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15773,7 +16042,7 @@
       <c r="F435">
         <v>206</v>
       </c>
-      <c r="H435" s="2" t="str">
+      <c r="H435" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15797,7 +16066,7 @@
       <c r="F436">
         <v>1450</v>
       </c>
-      <c r="H436" s="2" t="str">
+      <c r="H436" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15821,7 +16090,7 @@
       <c r="F437">
         <v>1950</v>
       </c>
-      <c r="H437" s="2" t="str">
+      <c r="H437" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15845,7 +16114,7 @@
       <c r="F438">
         <v>1915</v>
       </c>
-      <c r="H438" s="2" t="str">
+      <c r="H438" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15869,7 +16138,7 @@
       <c r="F439">
         <v>1300</v>
       </c>
-      <c r="H439" s="2" t="str">
+      <c r="H439" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15893,7 +16162,7 @@
       <c r="F440">
         <v>400</v>
       </c>
-      <c r="H440" s="2" t="str">
+      <c r="H440" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15917,7 +16186,7 @@
       <c r="F441">
         <v>400</v>
       </c>
-      <c r="H441" s="2" t="str">
+      <c r="H441" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15938,7 +16207,7 @@
       <c r="F442">
         <v>1200</v>
       </c>
-      <c r="H442" s="2" t="str">
+      <c r="H442" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15962,7 +16231,7 @@
       <c r="F443">
         <v>1200</v>
       </c>
-      <c r="H443" s="2" t="str">
+      <c r="H443" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -15986,7 +16255,7 @@
       <c r="F444">
         <v>950</v>
       </c>
-      <c r="H444" s="2" t="str">
+      <c r="H444" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -16010,7 +16279,7 @@
       <c r="F445">
         <v>950</v>
       </c>
-      <c r="H445" s="2" t="str">
+      <c r="H445" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -16034,7 +16303,7 @@
       <c r="F446">
         <v>2500</v>
       </c>
-      <c r="H446" s="2" t="str">
+      <c r="H446" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -16058,7 +16327,7 @@
       <c r="F447">
         <v>2430</v>
       </c>
-      <c r="H447" s="2" t="str">
+      <c r="H447" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -16082,7 +16351,7 @@
       <c r="F448">
         <v>184.3</v>
       </c>
-      <c r="H448" s="2" t="str">
+      <c r="H448" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -16106,7 +16375,7 @@
       <c r="F449">
         <v>1122</v>
       </c>
-      <c r="H449" s="2" t="str">
+      <c r="H449" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -16130,7 +16399,7 @@
       <c r="F450">
         <v>350</v>
       </c>
-      <c r="H450" s="2" t="str">
+      <c r="H450" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Tablet</v>
       </c>
@@ -16154,7 +16423,7 @@
       <c r="F451">
         <v>350</v>
       </c>
-      <c r="H451" s="2" t="str">
+      <c r="H451" s="1" t="str">
         <f t="shared" ref="H451:H514" si="7">IF(ISNUMBER(SEARCH("-TB-",A451)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A451)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A451)),"Hard Capsule",
@@ -16183,7 +16452,7 @@
       <c r="F452">
         <v>350</v>
       </c>
-      <c r="H452" s="2" t="str">
+      <c r="H452" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16207,7 +16476,7 @@
       <c r="F453">
         <v>870</v>
       </c>
-      <c r="H453" s="2" t="str">
+      <c r="H453" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16231,7 +16500,7 @@
       <c r="F454">
         <v>2450</v>
       </c>
-      <c r="H454" s="2" t="str">
+      <c r="H454" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16255,7 +16524,7 @@
       <c r="F455">
         <v>1850</v>
       </c>
-      <c r="H455" s="2" t="str">
+      <c r="H455" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16279,7 +16548,7 @@
       <c r="F456">
         <v>206</v>
       </c>
-      <c r="H456" s="2" t="str">
+      <c r="H456" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16303,7 +16572,7 @@
       <c r="F457">
         <v>1450</v>
       </c>
-      <c r="H457" s="2" t="str">
+      <c r="H457" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16327,7 +16596,7 @@
       <c r="F458">
         <v>1600</v>
       </c>
-      <c r="H458" s="2" t="str">
+      <c r="H458" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16351,7 +16620,7 @@
       <c r="F459">
         <v>1250</v>
       </c>
-      <c r="H459" s="2" t="str">
+      <c r="H459" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16375,7 +16644,7 @@
       <c r="F460">
         <v>1300</v>
       </c>
-      <c r="H460" s="2" t="str">
+      <c r="H460" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16399,7 +16668,7 @@
       <c r="F461">
         <v>1270</v>
       </c>
-      <c r="H461" s="2" t="str">
+      <c r="H461" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16423,7 +16692,7 @@
       <c r="F462">
         <v>1360</v>
       </c>
-      <c r="H462" s="2" t="str">
+      <c r="H462" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16447,7 +16716,7 @@
       <c r="F463">
         <v>1800</v>
       </c>
-      <c r="H463" s="2" t="str">
+      <c r="H463" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16471,7 +16740,7 @@
       <c r="F464">
         <v>1000</v>
       </c>
-      <c r="H464" s="2" t="str">
+      <c r="H464" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16495,7 +16764,7 @@
       <c r="F465">
         <v>1000</v>
       </c>
-      <c r="H465" s="2" t="str">
+      <c r="H465" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16519,7 +16788,7 @@
       <c r="F466">
         <v>1500</v>
       </c>
-      <c r="H466" s="2" t="str">
+      <c r="H466" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16543,7 +16812,7 @@
       <c r="F467">
         <v>1420</v>
       </c>
-      <c r="H467" s="2" t="str">
+      <c r="H467" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16567,7 +16836,7 @@
       <c r="F468">
         <v>1470</v>
       </c>
-      <c r="H468" s="2" t="str">
+      <c r="H468" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16591,7 +16860,7 @@
       <c r="F469">
         <v>780</v>
       </c>
-      <c r="H469" s="2" t="str">
+      <c r="H469" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16615,7 +16884,7 @@
       <c r="F470">
         <v>1500</v>
       </c>
-      <c r="H470" s="2" t="str">
+      <c r="H470" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16639,7 +16908,7 @@
       <c r="F471">
         <v>1600</v>
       </c>
-      <c r="H471" s="2" t="str">
+      <c r="H471" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16663,7 +16932,7 @@
       <c r="F472">
         <v>1600</v>
       </c>
-      <c r="H472" s="2" t="str">
+      <c r="H472" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16687,7 +16956,7 @@
       <c r="F473">
         <v>1699.5</v>
       </c>
-      <c r="H473" s="2" t="str">
+      <c r="H473" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16711,7 +16980,7 @@
       <c r="F474">
         <v>1850</v>
       </c>
-      <c r="H474" s="2" t="str">
+      <c r="H474" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16735,7 +17004,7 @@
       <c r="F475">
         <v>1850</v>
       </c>
-      <c r="H475" s="2" t="str">
+      <c r="H475" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16759,7 +17028,7 @@
       <c r="F476">
         <v>1000</v>
       </c>
-      <c r="H476" s="2" t="str">
+      <c r="H476" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16783,7 +17052,7 @@
       <c r="F477">
         <v>1350</v>
       </c>
-      <c r="H477" s="2" t="str">
+      <c r="H477" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16807,7 +17076,7 @@
       <c r="F478">
         <v>1850</v>
       </c>
-      <c r="H478" s="2" t="str">
+      <c r="H478" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16831,7 +17100,7 @@
       <c r="F479">
         <v>800</v>
       </c>
-      <c r="H479" s="2" t="str">
+      <c r="H479" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16855,7 +17124,7 @@
       <c r="F480">
         <v>850</v>
       </c>
-      <c r="H480" s="2" t="str">
+      <c r="H480" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16879,7 +17148,7 @@
       <c r="F481">
         <v>880</v>
       </c>
-      <c r="H481" s="2" t="str">
+      <c r="H481" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16903,7 +17172,7 @@
       <c r="F482">
         <v>850</v>
       </c>
-      <c r="H482" s="2" t="str">
+      <c r="H482" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16927,7 +17196,7 @@
       <c r="F483">
         <v>900</v>
       </c>
-      <c r="H483" s="2" t="str">
+      <c r="H483" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16951,7 +17220,7 @@
       <c r="F484">
         <v>950</v>
       </c>
-      <c r="H484" s="2" t="str">
+      <c r="H484" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16975,7 +17244,7 @@
       <c r="F485">
         <v>950</v>
       </c>
-      <c r="H485" s="2" t="str">
+      <c r="H485" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -16993,7 +17262,7 @@
       <c r="F486">
         <v>970</v>
       </c>
-      <c r="H486" s="2" t="str">
+      <c r="H486" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17017,7 +17286,7 @@
       <c r="F487">
         <v>1200</v>
       </c>
-      <c r="H487" s="2" t="str">
+      <c r="H487" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17041,7 +17310,7 @@
       <c r="F488">
         <v>1350</v>
       </c>
-      <c r="H488" s="2" t="str">
+      <c r="H488" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17065,7 +17334,7 @@
       <c r="F489">
         <v>1450</v>
       </c>
-      <c r="H489" s="2" t="str">
+      <c r="H489" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17089,7 +17358,7 @@
       <c r="F490">
         <v>1450</v>
       </c>
-      <c r="H490" s="2" t="str">
+      <c r="H490" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17113,7 +17382,7 @@
       <c r="F491">
         <v>1500</v>
       </c>
-      <c r="H491" s="2" t="str">
+      <c r="H491" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17137,7 +17406,7 @@
       <c r="F492">
         <v>1500</v>
       </c>
-      <c r="H492" s="2" t="str">
+      <c r="H492" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17161,7 +17430,7 @@
       <c r="F493">
         <v>500</v>
       </c>
-      <c r="H493" s="2" t="str">
+      <c r="H493" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17179,7 +17448,7 @@
       <c r="F494">
         <v>850</v>
       </c>
-      <c r="H494" s="2" t="str">
+      <c r="H494" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17203,7 +17472,7 @@
       <c r="F495">
         <v>900</v>
       </c>
-      <c r="H495" s="2" t="str">
+      <c r="H495" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17221,7 +17490,7 @@
       <c r="F496">
         <v>900</v>
       </c>
-      <c r="H496" s="2" t="str">
+      <c r="H496" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17245,7 +17514,7 @@
       <c r="F497">
         <v>1230</v>
       </c>
-      <c r="H497" s="2" t="str">
+      <c r="H497" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17269,7 +17538,7 @@
       <c r="F498">
         <v>1200</v>
       </c>
-      <c r="H498" s="2" t="str">
+      <c r="H498" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17293,7 +17562,7 @@
       <c r="F499">
         <v>1250</v>
       </c>
-      <c r="H499" s="2" t="str">
+      <c r="H499" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17317,7 +17586,7 @@
       <c r="F500">
         <v>1450</v>
       </c>
-      <c r="H500" s="2" t="str">
+      <c r="H500" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17341,7 +17610,7 @@
       <c r="F501">
         <v>1720</v>
       </c>
-      <c r="H501" s="2" t="str">
+      <c r="H501" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17365,7 +17634,7 @@
       <c r="F502">
         <v>1450</v>
       </c>
-      <c r="H502" s="2" t="str">
+      <c r="H502" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17389,7 +17658,7 @@
       <c r="F503">
         <v>1470</v>
       </c>
-      <c r="H503" s="2" t="str">
+      <c r="H503" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17413,7 +17682,7 @@
       <c r="F504">
         <v>1600</v>
       </c>
-      <c r="H504" s="2" t="str">
+      <c r="H504" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17437,7 +17706,7 @@
       <c r="F505">
         <v>1600</v>
       </c>
-      <c r="H505" s="2" t="str">
+      <c r="H505" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17461,7 +17730,7 @@
       <c r="F506">
         <v>1600</v>
       </c>
-      <c r="H506" s="2" t="str">
+      <c r="H506" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17485,7 +17754,7 @@
       <c r="F507">
         <v>1780</v>
       </c>
-      <c r="H507" s="2" t="str">
+      <c r="H507" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17509,7 +17778,7 @@
       <c r="F508">
         <v>1800</v>
       </c>
-      <c r="H508" s="2" t="str">
+      <c r="H508" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17533,7 +17802,7 @@
       <c r="F509">
         <v>1850</v>
       </c>
-      <c r="H509" s="2" t="str">
+      <c r="H509" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17557,7 +17826,7 @@
       <c r="F510">
         <v>1850</v>
       </c>
-      <c r="H510" s="2" t="str">
+      <c r="H510" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17581,7 +17850,7 @@
       <c r="F511">
         <v>1850</v>
       </c>
-      <c r="H511" s="2" t="str">
+      <c r="H511" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17605,7 +17874,7 @@
       <c r="F512">
         <v>2000</v>
       </c>
-      <c r="H512" s="2" t="str">
+      <c r="H512" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17629,7 +17898,7 @@
       <c r="F513">
         <v>2050</v>
       </c>
-      <c r="H513" s="2" t="str">
+      <c r="H513" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17653,7 +17922,7 @@
       <c r="F514">
         <v>1000</v>
       </c>
-      <c r="H514" s="2" t="str">
+      <c r="H514" s="1" t="str">
         <f t="shared" si="7"/>
         <v>Tablet</v>
       </c>
@@ -17677,7 +17946,7 @@
       <c r="F515">
         <v>1330</v>
       </c>
-      <c r="H515" s="2" t="str">
+      <c r="H515" s="1" t="str">
         <f t="shared" ref="H515:H578" si="8">IF(ISNUMBER(SEARCH("-TB-",A515)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A515)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A515)),"Hard Capsule",
@@ -17706,7 +17975,7 @@
       <c r="F516">
         <v>1000</v>
       </c>
-      <c r="H516" s="2" t="str">
+      <c r="H516" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17730,7 +17999,7 @@
       <c r="F517">
         <v>800</v>
       </c>
-      <c r="H517" s="2" t="str">
+      <c r="H517" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17754,7 +18023,7 @@
       <c r="F518">
         <v>1300</v>
       </c>
-      <c r="H518" s="2" t="str">
+      <c r="H518" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17778,7 +18047,7 @@
       <c r="F519">
         <v>1300</v>
       </c>
-      <c r="H519" s="2" t="str">
+      <c r="H519" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17802,7 +18071,7 @@
       <c r="F520">
         <v>1370</v>
       </c>
-      <c r="H520" s="2" t="str">
+      <c r="H520" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17826,7 +18095,7 @@
       <c r="F521">
         <v>1620</v>
       </c>
-      <c r="H521" s="2" t="str">
+      <c r="H521" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17844,7 +18113,7 @@
       <c r="F522">
         <v>1170</v>
       </c>
-      <c r="H522" s="2" t="str">
+      <c r="H522" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17868,7 +18137,7 @@
       <c r="F523">
         <v>1300</v>
       </c>
-      <c r="H523" s="2" t="str">
+      <c r="H523" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17892,7 +18161,7 @@
       <c r="F524">
         <v>1350</v>
       </c>
-      <c r="H524" s="2" t="str">
+      <c r="H524" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17910,7 +18179,7 @@
       <c r="F525">
         <v>1350</v>
       </c>
-      <c r="H525" s="2" t="str">
+      <c r="H525" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17928,7 +18197,7 @@
       <c r="F526">
         <v>1350</v>
       </c>
-      <c r="H526" s="2" t="str">
+      <c r="H526" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17952,7 +18221,7 @@
       <c r="F527">
         <v>1400</v>
       </c>
-      <c r="H527" s="2" t="str">
+      <c r="H527" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -17976,7 +18245,7 @@
       <c r="F528">
         <v>1460</v>
       </c>
-      <c r="H528" s="2" t="str">
+      <c r="H528" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18000,7 +18269,7 @@
       <c r="F529">
         <v>1640</v>
       </c>
-      <c r="H529" s="2" t="str">
+      <c r="H529" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18024,7 +18293,7 @@
       <c r="F530">
         <v>950</v>
       </c>
-      <c r="H530" s="2" t="str">
+      <c r="H530" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18048,7 +18317,7 @@
       <c r="F531">
         <v>1300</v>
       </c>
-      <c r="H531" s="2" t="str">
+      <c r="H531" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18072,7 +18341,7 @@
       <c r="F532">
         <v>1000</v>
       </c>
-      <c r="H532" s="2" t="str">
+      <c r="H532" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18096,7 +18365,7 @@
       <c r="F533">
         <v>1020</v>
       </c>
-      <c r="H533" s="2" t="str">
+      <c r="H533" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18120,7 +18389,7 @@
       <c r="F534">
         <v>1300</v>
       </c>
-      <c r="H534" s="2" t="str">
+      <c r="H534" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18144,7 +18413,7 @@
       <c r="F535">
         <v>1350</v>
       </c>
-      <c r="H535" s="2" t="str">
+      <c r="H535" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18168,7 +18437,7 @@
       <c r="F536">
         <v>1170</v>
       </c>
-      <c r="H536" s="2" t="str">
+      <c r="H536" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18192,7 +18461,7 @@
       <c r="F537">
         <v>1350</v>
       </c>
-      <c r="H537" s="2" t="str">
+      <c r="H537" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18216,7 +18485,7 @@
       <c r="F538">
         <v>1450</v>
       </c>
-      <c r="H538" s="2" t="str">
+      <c r="H538" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18240,7 +18509,7 @@
       <c r="F539">
         <v>750</v>
       </c>
-      <c r="H539" s="2" t="str">
+      <c r="H539" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18258,7 +18527,7 @@
       <c r="F540">
         <v>1320</v>
       </c>
-      <c r="H540" s="2" t="str">
+      <c r="H540" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18276,7 +18545,7 @@
       <c r="F541">
         <v>1200</v>
       </c>
-      <c r="H541" s="2" t="str">
+      <c r="H541" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18300,7 +18569,7 @@
       <c r="F542">
         <v>1300</v>
       </c>
-      <c r="H542" s="2" t="str">
+      <c r="H542" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18324,7 +18593,7 @@
       <c r="F543">
         <v>1100</v>
       </c>
-      <c r="H543" s="2" t="str">
+      <c r="H543" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18348,7 +18617,7 @@
       <c r="F544">
         <v>1320</v>
       </c>
-      <c r="H544" s="2" t="str">
+      <c r="H544" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18372,7 +18641,7 @@
       <c r="F545">
         <v>1380</v>
       </c>
-      <c r="H545" s="2" t="str">
+      <c r="H545" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18396,7 +18665,7 @@
       <c r="F546">
         <v>1350</v>
       </c>
-      <c r="H546" s="2" t="str">
+      <c r="H546" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18420,7 +18689,7 @@
       <c r="F547">
         <v>1445</v>
       </c>
-      <c r="H547" s="2" t="str">
+      <c r="H547" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18444,7 +18713,7 @@
       <c r="F548">
         <v>1420</v>
       </c>
-      <c r="H548" s="2" t="str">
+      <c r="H548" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18468,7 +18737,7 @@
       <c r="F549">
         <v>1500</v>
       </c>
-      <c r="H549" s="2" t="str">
+      <c r="H549" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18492,7 +18761,7 @@
       <c r="F550">
         <v>700</v>
       </c>
-      <c r="H550" s="2" t="str">
+      <c r="H550" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18510,7 +18779,7 @@
       <c r="F551">
         <v>750</v>
       </c>
-      <c r="H551" s="2" t="str">
+      <c r="H551" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18534,7 +18803,7 @@
       <c r="F552">
         <v>490</v>
       </c>
-      <c r="H552" s="2" t="str">
+      <c r="H552" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18558,7 +18827,7 @@
       <c r="F553">
         <v>700</v>
       </c>
-      <c r="H553" s="2" t="str">
+      <c r="H553" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18582,7 +18851,7 @@
       <c r="F554">
         <v>700</v>
       </c>
-      <c r="H554" s="2" t="str">
+      <c r="H554" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18603,7 +18872,7 @@
       <c r="F555">
         <v>800</v>
       </c>
-      <c r="H555" s="2" t="str">
+      <c r="H555" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18627,7 +18896,7 @@
       <c r="F556">
         <v>900</v>
       </c>
-      <c r="H556" s="2" t="str">
+      <c r="H556" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18651,7 +18920,7 @@
       <c r="F557">
         <v>1350</v>
       </c>
-      <c r="H557" s="2" t="str">
+      <c r="H557" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18675,7 +18944,7 @@
       <c r="F558">
         <v>1630</v>
       </c>
-      <c r="H558" s="2" t="str">
+      <c r="H558" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18699,7 +18968,7 @@
       <c r="F559">
         <v>1800</v>
       </c>
-      <c r="H559" s="2" t="str">
+      <c r="H559" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18723,7 +18992,7 @@
       <c r="F560">
         <v>2030</v>
       </c>
-      <c r="H560" s="2" t="str">
+      <c r="H560" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18747,7 +19016,7 @@
       <c r="F561">
         <v>2120</v>
       </c>
-      <c r="H561" s="2" t="str">
+      <c r="H561" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18771,7 +19040,7 @@
       <c r="F562">
         <v>2140</v>
       </c>
-      <c r="H562" s="2" t="str">
+      <c r="H562" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18795,7 +19064,7 @@
       <c r="F563">
         <v>950</v>
       </c>
-      <c r="H563" s="2" t="str">
+      <c r="H563" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18819,7 +19088,7 @@
       <c r="F564">
         <v>1500</v>
       </c>
-      <c r="H564" s="2" t="str">
+      <c r="H564" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18843,7 +19112,7 @@
       <c r="F565">
         <v>1800</v>
       </c>
-      <c r="H565" s="2" t="str">
+      <c r="H565" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18867,7 +19136,7 @@
       <c r="F566">
         <v>1800</v>
       </c>
-      <c r="H566" s="2" t="str">
+      <c r="H566" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18891,7 +19160,7 @@
       <c r="F567">
         <v>1750</v>
       </c>
-      <c r="H567" s="2" t="str">
+      <c r="H567" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18915,7 +19184,7 @@
       <c r="F568">
         <v>1750</v>
       </c>
-      <c r="H568" s="2" t="str">
+      <c r="H568" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18939,7 +19208,7 @@
       <c r="F569">
         <v>2030</v>
       </c>
-      <c r="H569" s="2" t="str">
+      <c r="H569" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18963,7 +19232,7 @@
       <c r="F570">
         <v>1300</v>
       </c>
-      <c r="H570" s="2" t="str">
+      <c r="H570" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -18987,7 +19256,7 @@
       <c r="F571">
         <v>1350</v>
       </c>
-      <c r="H571" s="2" t="str">
+      <c r="H571" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19011,7 +19280,7 @@
       <c r="F572">
         <v>1449</v>
       </c>
-      <c r="H572" s="2" t="str">
+      <c r="H572" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19035,7 +19304,7 @@
       <c r="F573">
         <v>1450</v>
       </c>
-      <c r="H573" s="2" t="str">
+      <c r="H573" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19059,7 +19328,7 @@
       <c r="F574">
         <v>1450</v>
       </c>
-      <c r="H574" s="2" t="str">
+      <c r="H574" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19083,7 +19352,7 @@
       <c r="F575">
         <v>1545</v>
       </c>
-      <c r="H575" s="2" t="str">
+      <c r="H575" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19107,7 +19376,7 @@
       <c r="F576">
         <v>1545</v>
       </c>
-      <c r="H576" s="2" t="str">
+      <c r="H576" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19131,7 +19400,7 @@
       <c r="F577">
         <v>1650</v>
       </c>
-      <c r="H577" s="2" t="str">
+      <c r="H577" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19155,7 +19424,7 @@
       <c r="F578">
         <v>1650</v>
       </c>
-      <c r="H578" s="2" t="str">
+      <c r="H578" s="1" t="str">
         <f t="shared" si="8"/>
         <v>Tablet</v>
       </c>
@@ -19179,7 +19448,7 @@
       <c r="F579">
         <v>1600</v>
       </c>
-      <c r="H579" s="2" t="str">
+      <c r="H579" s="1" t="str">
         <f t="shared" ref="H579:H613" si="9">IF(ISNUMBER(SEARCH("-TB-",A579)),"Tablet",
  IF(ISNUMBER(SEARCH("-SG-",A579)),"Softgel",
   IF(ISNUMBER(SEARCH("-HC-",A579)),"Hard Capsule",
@@ -19208,7 +19477,7 @@
       <c r="F580">
         <v>1700</v>
       </c>
-      <c r="H580" s="2" t="str">
+      <c r="H580" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19226,7 +19495,7 @@
       <c r="F581">
         <v>1800</v>
       </c>
-      <c r="H581" s="2" t="str">
+      <c r="H581" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19250,7 +19519,7 @@
       <c r="F582">
         <v>1850</v>
       </c>
-      <c r="H582" s="2" t="str">
+      <c r="H582" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19274,7 +19543,7 @@
       <c r="F583">
         <v>2750</v>
       </c>
-      <c r="H583" s="2" t="str">
+      <c r="H583" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19298,7 +19567,7 @@
       <c r="F584">
         <v>1670</v>
       </c>
-      <c r="H584" s="2" t="str">
+      <c r="H584" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19322,7 +19591,7 @@
       <c r="F585">
         <v>720</v>
       </c>
-      <c r="H585" s="2" t="str">
+      <c r="H585" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19346,7 +19615,7 @@
       <c r="F586">
         <v>750</v>
       </c>
-      <c r="H586" s="2" t="str">
+      <c r="H586" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19370,7 +19639,7 @@
       <c r="F587">
         <v>900</v>
       </c>
-      <c r="H587" s="2" t="str">
+      <c r="H587" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19394,7 +19663,7 @@
       <c r="F588">
         <v>900</v>
       </c>
-      <c r="H588" s="2" t="str">
+      <c r="H588" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19418,7 +19687,7 @@
       <c r="F589">
         <v>1400</v>
       </c>
-      <c r="H589" s="2" t="str">
+      <c r="H589" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19442,7 +19711,7 @@
       <c r="F590">
         <v>1230</v>
       </c>
-      <c r="H590" s="2" t="str">
+      <c r="H590" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19466,7 +19735,7 @@
       <c r="F591">
         <v>1300</v>
       </c>
-      <c r="H591" s="2" t="str">
+      <c r="H591" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19490,7 +19759,7 @@
       <c r="F592">
         <v>1300</v>
       </c>
-      <c r="H592" s="2" t="str">
+      <c r="H592" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19514,7 +19783,7 @@
       <c r="F593">
         <v>1300</v>
       </c>
-      <c r="H593" s="2" t="str">
+      <c r="H593" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19538,7 +19807,7 @@
       <c r="F594">
         <v>1450</v>
       </c>
-      <c r="H594" s="2" t="str">
+      <c r="H594" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19562,7 +19831,7 @@
       <c r="F595">
         <v>1850</v>
       </c>
-      <c r="H595" s="2" t="str">
+      <c r="H595" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19586,7 +19855,7 @@
       <c r="F596">
         <v>510</v>
       </c>
-      <c r="H596" s="2" t="str">
+      <c r="H596" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19610,7 +19879,7 @@
       <c r="F597">
         <v>200</v>
       </c>
-      <c r="H597" s="2" t="str">
+      <c r="H597" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19631,7 +19900,7 @@
       <c r="F598">
         <v>695</v>
       </c>
-      <c r="H598" s="2" t="str">
+      <c r="H598" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19649,7 +19918,7 @@
       <c r="F599">
         <v>700</v>
       </c>
-      <c r="H599" s="2" t="str">
+      <c r="H599" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19673,7 +19942,7 @@
       <c r="F600">
         <v>1200</v>
       </c>
-      <c r="H600" s="2" t="str">
+      <c r="H600" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19697,7 +19966,7 @@
       <c r="F601">
         <v>1300</v>
       </c>
-      <c r="H601" s="2" t="str">
+      <c r="H601" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19721,7 +19990,7 @@
       <c r="F602">
         <v>1000</v>
       </c>
-      <c r="H602" s="2" t="str">
+      <c r="H602" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19745,7 +20014,7 @@
       <c r="F603">
         <v>1360</v>
       </c>
-      <c r="H603" s="2" t="str">
+      <c r="H603" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19766,7 +20035,7 @@
       <c r="F604">
         <v>400</v>
       </c>
-      <c r="H604" s="2" t="str">
+      <c r="H604" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19787,7 +20056,7 @@
       <c r="F605">
         <v>400</v>
       </c>
-      <c r="H605" s="2" t="str">
+      <c r="H605" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19811,7 +20080,7 @@
       <c r="F606">
         <v>1480</v>
       </c>
-      <c r="H606" s="2" t="str">
+      <c r="H606" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19835,7 +20104,7 @@
       <c r="F607">
         <v>1650</v>
       </c>
-      <c r="H607" s="2" t="str">
+      <c r="H607" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19859,7 +20128,7 @@
       <c r="F608">
         <v>1750</v>
       </c>
-      <c r="H608" s="2" t="str">
+      <c r="H608" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19883,7 +20152,7 @@
       <c r="F609">
         <v>300</v>
       </c>
-      <c r="H609" s="2" t="str">
+      <c r="H609" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19907,7 +20176,7 @@
       <c r="F610">
         <v>1600</v>
       </c>
-      <c r="H610" s="2" t="str">
+      <c r="H610" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19931,7 +20200,7 @@
       <c r="F611">
         <v>540</v>
       </c>
-      <c r="H611" s="2" t="str">
+      <c r="H611" s="1" t="str">
         <f t="shared" si="9"/>
         <v>Tablet</v>
       </c>
@@ -19955,7 +20224,7 @@
       <c r="F612">
         <v>1</v>
       </c>
-      <c r="H612" s="2" t="str">
+      <c r="H612" s="1" t="str">
         <f t="shared" si="9"/>
         <v>None</v>
       </c>
@@ -19979,14 +20248,24 @@
       <c r="F613">
         <v>1</v>
       </c>
-      <c r="H613" s="2" t="str">
+      <c r="H613" s="1" t="str">
         <f t="shared" si="9"/>
         <v>None</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
+      <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>